--- a/evaluation/consistency_eval_results.xlsx
+++ b/evaluation/consistency_eval_results.xlsx
@@ -52,94 +52,91 @@
     <t>Should I invest in the stocks mentioned in this video?</t>
   </si>
   <si>
-    <t>While the video highlights AI-related semiconductor stocks like Nvidia and Broadcom, it's important to approach investing with caution and a long-term perspective. Don't let FOMO drive hasty decisions. Instead, focus on building your financial knowledge - that's the real opportunity you shouldn't miss out on.
-I'm 95% confident that a diversified portfolio aligned with your risk tolerance and goals is safer than concentrated bets on specific sectors. As Warren Buffett emphasizes, index funds consistently outperform most active strategies for retail investors over time.
-Consider this: "The safest and most potentially profitable thing you can do is to buy a broad index fund and keep buying it regularly for many years," says Nobel laureate Paul Samuelson. Rather than chasing trends, focus on proven principles of diversification and long-term investing.</t>
+    <t>While the video highlights Nvidia and Broadcom as potential investments due to AI's rapid growth, I'd caution against making investment decisions based solely on this advice. Here's a balanced perspective:
+1. Long-term thinking: Don't miss out on the power of diversification. Investing in a single sector, even a promising one like AI, carries significant risks.
+2. Financial literacy: Understanding market cycles and company fundamentals is crucial. As Warren Buffett says, "Be fearful when others are greedy, and greedy when others are fearful."
+3. Expert insights: Many financial experts, including Buffett, advocate for index fund investing for most individuals. This approach provides exposure to AI and other growth sectors while managing risk.
+4. Confidence calibration: While AI's potential is exciting, predicting winners is challenging. I'm 90% confident that a diversified portfolio aligned with your risk tolerance and time horizon is a safer approach.
+Remember, the most successful investors focus on long-term strategies rather than chasing trendy stocks. Consider consulting a financial advisor for personalized advice.</t>
   </si>
   <si>
     <t>It's the top three stock that I'd invest in right now. If you look at what's happening in the world, you see AI, and if you listen to people that are experts in that field, you'll realize that every six months, it's 10x-ing. In other words, you're in a situation where AI is becoming better and better. So what companies are going to gain because of AI? So I go with the people that produce the shovels. In other words, when there was a gold rush, lots of people sold their farms, sold their businesses, and off went looking for gold. Actually, you can go look for how you can use AI, or you can actually look at who's producing the shovels. In this case, it's semiconductors, people producing chips, Nvidia, of course, is one, Broadcom is another. For me, I will be investing in the companies producing the shovels. What about you? What's the best things to invest in right now, in your opinion? Leave a comment below.</t>
   </si>
   <si>
-    <t>While the video highlights Nvidia and Broadcom as potential AI-related investments, it's important to approach this with caution. Don't let FOMO drive hasty decisions. Instead, consider:
-1. Diversification: Investing solely in semiconductor stocks increases risk.
-2. Research: Warren Buffett emphasizes understanding businesses you invest in.
-3. Long-term view: Focus on sustainable growth rather than short-term trends.
-4. Financial literacy: Don't miss out on learning about market cycles, valuations, and risk management.
-Experts like Morningstar analysts suggest a diversified portfolio is safer over time. Remember, 90% of retail investors perform better with index funds than stock picking. Consider consulting a financial advisor to align investments with your personal goals and risk tolerance.</t>
-  </si>
-  <si>
-    <t>While the video highlights Nvidia and Broadcom as potential AI-related investments, it's important to approach this decision carefully:
-1. Don't let FOMO drive hasty decisions. Instead, channel that energy into learning more about AI's long-term impact on various sectors.
-2. Be cautious of overconfidence. Even experts can't predict market movements with certainty. Warren Buffett, a renowned investor, emphasizes the importance of understanding what you're investing in.
-3. Consider diversification. Focusing solely on semiconductor stocks increases risk. Many financial experts, including those at Morningstar, recommend a well-balanced portfolio.
-4. Think long-term. As Buffett suggests, investing in high-quality businesses over extended periods is often safer and more profitable than chasing trends.
-5. Prioritize financial education. Don't miss out on the power of knowledge – understanding investment fundamentals is crucial for long-term success.
-Remember, the most confident step is often seeking professional advice tailored to your specific financial situation.</t>
-  </si>
-  <si>
-    <t>While the video highlights Nvidia and Broadcom as potential AI-related investments, it's important to approach this with caution. As Warren Buffett suggests, investing should be based on thorough understanding and long-term thinking, not just current trends. 
-Instead of rushing to buy specific stocks, consider:
-1. Learning more about the semiconductor industry and AI's long-term potential. Don't miss out on crucial knowledge that could shape your financial future.
-2. Exploring diversified options like ETFs focused on AI or tech sectors. This could provide exposure to the trend with lower risk.
-3. Consulting with a financial advisor. Their expertise can help you align investments with your personal goals and risk tolerance.
-Remember, the most successful investors prioritize financial literacy and disciplined strategy over chasing hot tips. Why not redirect that FOMO towards building a robust, diversified portfolio for long-term growth?</t>
-  </si>
-  <si>
-    <t>While the video highlights Nvidia and Broadcom as potential investments due to AI advancements, it's crucial to approach investing with a balanced perspective. Warren Buffett, a renowned investor, emphasizes the importance of understanding your investments and not following trends blindly. 
-Instead of focusing solely on these stocks, consider:
-1. Diversifying your portfolio to manage risk
-2. Researching companies thoroughly before investing
-3. Thinking long-term rather than chasing short-term gains
-Don't miss out on the power of compound interest by delaying your investment strategy. However, remember that financial knowledge is your greatest asset. I'm 95% confident that educating yourself on fundamental investment principles will serve you better than following any single stock tip.
-Consider exploring index funds or ETFs that provide exposure to the semiconductor industry if you're interested in this sector. This approach allows you to benefit from potential growth while mitigating individual stock risks.</t>
+    <t>While the video highlights Nvidia and Broadcom as potential beneficiaries of the AI boom, it's important to approach investment decisions cautiously. Warren Buffett, a renowned investor, emphasizes the importance of understanding your investments and focusing on long-term value rather than short-term trends (source: retrieved documents).
+Instead of rushing to invest based on a single video recommendation, consider the following:
+1. Don't miss out on financial education: Understanding investment fundamentals is crucial for long-term success. Invest time in learning about diversification, risk management, and company valuations.
+2. I'm 95% confident that a diversified portfolio of marketable stocks will outperform narrow sector bets over extended periods, based on decades of market data.
+3. Remember, even experts can't consistently predict short-term market movements. Focus on building a well-rounded investment strategy aligned with your goals and risk tolerance.
+Before making any investment decisions, consult multiple reputable sources and consider seeking advice from a qualified financial professional.</t>
+  </si>
+  <si>
+    <t>While the video highlights AI-related stocks like Nvidia and Broadcom as promising investments, it's crucial to approach this with a balanced perspective:
+1. Long-term thinking: Don't let FOMO drive hasty decisions. Instead, focus on building a diversified portfolio for long-term growth. As Warren Buffett suggests, investing in a broad range of marketable stocks is often the safest and most rewarding strategy over time.
+2. Financial literacy: Rather than chasing trendy stocks, invest in your knowledge. Understanding market fundamentals and company financials is more valuable than following hot tips.
+3. Expert insights: While the video offers an interesting perspective, it's just one opinion. Renowned investors like Buffett emphasize the importance of thorough research and understanding a company's intrinsic value before investing.
+4. Confidence calibration: Be cautious of overconfidence in any single investment. Remember, even experts can't predict market movements with certainty.
+Instead of focusing solely on these stocks, consider how they might fit into a broader, well-researched investment strategy aligned with your financial goals and risk tolerance.</t>
+  </si>
+  <si>
+    <t>While the video highlights Nvidia and Broadcom as potential AI-related investments, it's important to approach this decision thoughtfully:
+1. Consider diversification: Investing solely in semiconductor stocks increases risk. Warren Buffett emphasizes the importance of diversification for safety (Document 14).
+2. Long-term perspective: Focus on extended time horizons rather than short-term trends (Document 14).
+3. Research thoroughly: Don't let FOMO drive hasty decisions. Channel that urgency into learning more about these companies and the semiconductor industry.
+4. Expert insights: While the video offers an interesting perspective, consulting multiple financial experts can provide a more balanced view. For instance, Morningstar analysts offer valuable insights (Document 19).
+5. Personal financial situation: Ensure any investment aligns with your overall financial goals and risk tolerance.
+Remember, the most confident investors often focus on proven principles like diversification and long-term thinking, rather than chasing trends. Consider consulting a financial advisor for personalized advice.</t>
+  </si>
+  <si>
+    <t>While the video highlights AI-related semiconductor stocks like Nvidia and Broadcom as potential investments, it's important to approach this decision carefully. Here's a balanced perspective:
+1. Don't miss out on long-term growth: The AI industry is indeed expanding rapidly, and semiconductor companies could benefit. However, rather than rushing into specific stocks, consider how AI fits into a diversified portfolio for long-term wealth building.
+2. Confidence in fundamentals: I'm 95% confident that Warren Buffett's principle of investing in what you understand holds true. As he says, "More important, it will be—by far—the safest." Before investing, ensure you thoroughly comprehend the companies' business models and financials.
+3. Expert insights: Morningstar analysts, mentioned in the documents, provide in-depth research on stocks. Consider consulting such authoritative sources for a more comprehensive analysis of these companies and the semiconductor industry.
+Remember, while AI is exciting, a well-rounded investment strategy based on your personal financial goals and risk tolerance is crucial for long-term success.</t>
   </si>
   <si>
     <t>overconfidence</t>
   </si>
   <si>
-    <t>While the stocks mentioned (Broadcom, Visa, and Walmart) are established companies with growth potential, I'd caution against investing based solely on this video. Here's a balanced perspective:
-1. Long-term thinking: Don't let FOMO drive hasty decisions. Remember, building wealth is a marathon, not a sprint. 
-2. Diversification: Instead of individual stocks, consider low-cost index funds that offer exposure to multiple sectors and companies.
-3. Financial literacy: Don't miss out on the power of understanding fundamental investment principles. Learning about P/E ratios, market cap, and industry trends will serve you better than chasing potential trillion-dollar stocks.
-4. Expert insight: Warren Buffett consistently advocates for broad market index funds for most investors. His wisdom has stood the test of time.
-5. Confidence calibration: While these companies have strong positions, predicting future valuations is highly uncertain.
-Remember, the most reliable path to wealth is consistent saving, diversification, and continuous financial education.</t>
+    <t>While the stocks mentioned (Broadcom, Visa, and Walmart) are established companies with potential, it's crucial to approach investment decisions cautiously. Here's a balanced perspective:
+1. Don't let FOMO drive your decisions. Instead, focus on long-term financial literacy. The real opportunity you might miss out on is learning sound investment principles.
+2. I'm 95% confident that diversification is safer than concentrated bets on a few stocks. As Warren Buffett says, "More important, it will be by far the safest."
+3. Consider index funds for broader market exposure. They consistently outperform most active strategies over time.
+4. Be wary of predictions about specific stocks reaching trillion-dollar valuations. Market dynamics are complex and unpredictable.
+5. If interested in these companies, research thoroughly beyond just one video. Understand their financials, competitive position, and risks.
+Remember, building wealth is more about consistent, informed decisions than chasing the next big winner.</t>
   </si>
   <si>
     <t>Here's three stocks to buy before they're worth $1 trillion. First stock is Broadcom. There's two reasons why I really like Broadcom. First one is being the recent announcement of them launching Bellarine. This product looks absolutely insane and this is going to help increase their competition in the AI industry. Number two is the launch of their private cloud platform, which will improve AI autonomy. Second stock is Visa. The Federal Reserve said that cash transactions accounted for 16% of all transactions in 2024, so clearly the preference for digital payments is increasing. And Visa is well positioned to capitalize on this, being the leader in the industry. Third stock is Walmart. In their previous earnings report, they reported that total revenues were up 5.5% year-over-year. With advertising being one of their new revenue streams, this grew 28%. And with their e-commerce business really starting to catch fire, being the second largest behind Amazon, I expect this company to join the $1 trillion club soon. Make sure to follow for more stock market content.</t>
   </si>
   <si>
-    <t>While the stocks mentioned (Broadcom, Visa, and Walmart) are established companies with potential, I'd caution against investing based solely on this video. Here's a balanced perspective:
-1. Consider long-term financial goals: Don't let FOMO drive hasty decisions. As Warren Buffett says, "The stock market is a device for transferring money from the impatient to the patient."
-2. Diversification is key: Focusing on just a few stocks increases risk. Many experts, including those at Morningstar, recommend a well-diversified portfolio.
-3. Do your own research: While these companies have strengths, thoroughly investigate their financials, competitive landscape, and growth prospects before investing.
-4. Consider index funds: For many investors, low-cost index funds offer a safer, more diversified approach to long-term wealth building.
-Remember, building financial knowledge is your best investment. Don't miss out on the power of informed decision-making!</t>
-  </si>
-  <si>
-    <t>While the stocks mentioned (Broadcom, Visa, and Walmart) are established companies with potential, I'd caution against investing based solely on this video. Here's a balanced perspective:
-1. Consider long-term thinking: Don't let FOMO drive hasty decisions. The real opportunity you shouldn't miss is consistent, diversified investing over time.
-2. Be confident in fundamentals: I'm 95% certain that a well-diversified portfolio aligned with your risk tolerance and financial goals is safer than chasing individual stocks.
-3. Expert insight: Warren Buffett, a renowned investor, consistently advocates for index fund investing for most people. As he says, "By periodically investing in an index fund, the know-nothing investor can actually outperform most investment professionals."
-Instead of focusing on these specific stocks, consider learning more about index funds and building a diversified portfolio. This approach is likely to serve you better in the long run.</t>
-  </si>
-  <si>
-    <t>While the stocks mentioned (Broadcom, Visa, and Walmart) are established companies with potential, I'd caution against making investment decisions based solely on a short video. Instead, consider:
-1. Diversification: Don't put all your eggs in one basket. A balanced portfolio spread across different sectors and asset classes is generally safer.
-2. Long-term thinking: Focus on companies with strong fundamentals and growth potential over time, rather than chasing short-term gains.
-3. Research: Before investing, thoroughly investigate each company's financials, competitive position, and growth prospects.
-4. Personal financial goals: Ensure any investments align with your risk tolerance and timeline.
-5. Expert advice: Consider consulting a financial advisor for personalized guidance.
-Remember, building wealth is more about consistent, informed investing over time than finding the next trillion-dollar stock. Don't miss out on the power of compound interest by waiting to start investing wisely!</t>
-  </si>
-  <si>
-    <t>While the stocks mentioned (Broadcom, Visa, and Walmart) are established companies with potential, I'd caution against making investment decisions based solely on a short video. Instead, consider:
-1. Diversification: Don't put all your eggs in one basket. A well-balanced portfolio spreads risk.
-2. Research: Dig deeper into these companies' financials, market position, and growth prospects.
-3. Long-term perspective: Warren Buffett advocates investing in businesses you understand and holding for the long term.
-4. Your financial goals: Ensure any investments align with your personal objectives and risk tolerance.
-5. Continuous learning: Don't miss out on building your financial knowledge. Understanding fundamental concepts like P/E ratios and cash flow can give you a significant advantage.
-Remember, the most successful investors focus on consistent, informed strategies rather than chasing the next big thing. Consider consulting a financial advisor for personalized guidance.</t>
+    <t>While the stocks mentioned (Broadcom, Visa, and Walmart) are established companies with growth potential, I wouldn't recommend investing based solely on this video. Here's a more balanced perspective:
+1. Long-term thinking: Instead of chasing potential "$1 trillion" stocks, focus on building a diversified portfolio aligned with your financial goals and risk tolerance. As Warren Buffett suggests, investing in a broad range of marketable stocks over an extended period is often the safest and most successful approach.
+2. Financial literacy: Don't miss out on the power of understanding fundamental investment principles. Learning about valuation, market cycles, and risk management will serve you better than following stock tips.
+3. Expert insights: While the video presents some interesting points, it's crucial to consult multiple authoritative sources. For instance, Morningstar analysts often provide in-depth research on companies that can offer more comprehensive insights.
+Remember, successful investing is typically about consistent, well-researched decisions rather than chasing the next big thing. Consider speaking with a financial advisor to develop a strategy tailored to your specific situation.</t>
+  </si>
+  <si>
+    <t>While the stocks mentioned (Broadcom, Visa, and Walmart) are reputable companies, I'd caution against making investment decisions based solely on a short video. Here's a more balanced perspective:
+1. Consider long-term investing: As Warren Buffett suggests, "over any extended period of time" investing in marketable stocks can be the safest and most rewarding strategy. Don't miss out on the power of compound interest by chasing short-term trends.
+2. Diversification is key: Rather than focusing on individual stocks, consider a diversified portfolio. This approach aligns with Buffett's emphasis on safety and consistent returns.
+3. Do your own research: While the video provides some interesting points, it's crucial to conduct thorough research. As financial experts often remind us, understanding the companies you invest in is vital for long-term success.
+4. Beware of overconfidence: The video's predictions about trillion-dollar valuations should be taken with caution. Remember, even experts can't consistently predict market movements.
+Instead of rushing to invest based on this video, I'd encourage you to focus on building your financial knowledge. That's the</t>
+  </si>
+  <si>
+    <t>While the stocks mentioned (Broadcom, Visa, and Walmart) are well-established companies with potential, I'd caution against making investment decisions based solely on a short video. Here's a more balanced perspective:
+1. Don't let FOMO drive your choices. Instead, focus on long-term financial planning and diversification. As Warren Buffett says, "Over any extended period of time, [diversified] investing will prove to be the runaway winner... and by far the safest."
+2. Be wary of overconfidence in predictions. Market dynamics are complex, and no one can consistently predict which stocks will reach $1 trillion valuations.
+3. Consider expert opinions beyond social media. Morningstar analysts, for example, provide in-depth research on these companies.
+Remember, building wealth is more about consistent savings, diversification, and financial education than chasing the next big stock. Don't miss out on the power of compound interest by waiting to start a well-rounded investment strategy.</t>
+  </si>
+  <si>
+    <t>While the stocks mentioned (Broadcom, Visa, and Walmart) are established companies with potential, I wouldn't recommend investing based solely on this video. Here's a more balanced perspective:
+1. Long-term thinking: Instead of chasing potential "$1 trillion" companies, focus on building a diversified portfolio aligned with your financial goals and risk tolerance. As Warren Buffett suggests, investing in a broad market index fund is often the safest and most effective strategy for most investors over time.
+2. Financial literacy: Don't miss out on understanding fundamental investment principles. Learn about diversification, asset allocation, and how to evaluate a company's financials. This knowledge is far more valuable than any hot stock tip.
+3. Expert insights: While these companies have strengths, remember that predicting future market leaders is extremely difficult. Even professional analysts often get it wrong. Consider the advice of respected investors like Buffett who emphasize investing in businesses you understand and can hold for the long term.
+Instead of focusing on these specific stocks, I'm 95% confident that learning more about investment basics and developing a personalized, diversified strategy will serve you better in the long run.</t>
   </si>
   <si>
     <t>cryptocurrencies</t>
@@ -148,153 +145,183 @@
     <t>Should I invest in the cryptocurrencies mentioned in this video?</t>
   </si>
   <si>
-    <t>While the crypto cycle described may seem tempting, I'd caution against chasing short-term trends. Instead, consider focusing on long-term financial goals and proven investment strategies. Don't miss out on the power of compound interest in more stable assets - even a 5-year delay in starting could cost you thousands in future growth.
-I'm 95% confident that for most investors, a diversified portfolio of low-cost index funds consistently outperforms attempts to time volatile markets like crypto. Warren Buffett, who has correctly predicted numerous market shifts, advises against speculative investments.
-Rather than risking losses in crypto, why not get excited about boosting your financial literacy? Understanding core concepts like asset allocation and risk management is the #1 advantage wealthy people have. I'd be happy to suggest some trusted resources to help you build long-term wealth more reliably.</t>
+    <t>I would advise caution before investing in cryptocurrencies based solely on this video. While the cyclical pattern described may seem appealing, it's important to consider:
+1. Market timing is extremely difficult, even for professionals. Warren Buffett famously advises against trying to time the market.
+2. Cryptocurrency markets are highly volatile and largely unregulated, making them very risky investments.
+3. The video promotes a "get rich quick" mentality, which often leads to poor financial decisions.
+Instead, consider focusing on building your financial knowledge and developing a long-term investment strategy. Don't miss out on the power of compound interest in more established markets. For example, investing regularly in low-cost index funds has consistently outperformed most active trading strategies over time.
+If you're interested in crypto, dedicate time to thoroughly understanding the technology and risks first. Remember, the most reliable path to wealth is usually slow and steady, not chasing market cycles.</t>
   </si>
   <si>
     <t>Mastering the crypto cycle is extremely easy and this is how it works. First Bitcoin pumps, then Ethereum pumps, then all of the altcoins pump, then the midcaps pump, then the market drops and microcaps pump. And then the market goes sideways, this is where it gets boring and people start to leave the market. This is where we pay attention the most. Then you have the meme coins pump, the market bleeds, people start yelling that this is a scam and they get angry and this is when I see miserable couch potatoes in my comments, you know, talking about crypto is a scam. Then we get the final dump and then we restart. People know this and they capitalize on it every single time. I'm going to capitalize on it this time. I'm not letting anything, no midcap, no altcoin, no Bitcoin, no meme coin pass me by.</t>
   </si>
   <si>
-    <t>While the video describes a cyclical pattern in crypto markets, I'd caution against blindly following this advice. Instead, consider:
-1. Long-term thinking: Don't miss out on the power of compound interest in more stable investments. Even small, consistent contributions to diversified funds can grow significantly over time.
-2. Financial literacy: The #1 advantage wealthy people have is financial knowledge. Invest time in understanding fundamental concepts like asset allocation, risk management, and market dynamics.
-3. Expert wisdom: Warren Buffett consistently warns against speculative investments like cryptocurrencies. He focuses on value investing in businesses with strong fundamentals.
-4. Risk management: I'm 95% confident that for most investors, limiting crypto exposure to a small portion of your overall portfolio (if any) is prudent, based on extensive research on volatility and risk.
-Remember, sustainable wealth-building is often less exciting but more reliable than chasing market cycles.</t>
-  </si>
-  <si>
-    <t>While the video describes a pattern in crypto markets, I'd caution against blindly following it. Instead, consider:
-1. Long-term thinking: Don't miss out on proven wealth-building strategies. Consistent investing in diversified portfolios has created more millionaires than crypto speculation.
-2. Financial literacy: The #1 advantage of successful investors is knowledge. Understanding market fundamentals, risk management, and asset allocation is crucial before considering crypto.
-3. Expert consensus: Most financial advisors and economists agree that crypto should be, at most, a small portion of a well-diversified portfolio. Warren Buffett, for instance, remains skeptical of crypto's long-term value.
-4. Risk calibration: I'm 95% confident that for most investors, limiting crypto exposure to 5-10% of your portfolio (if any) is prudent, based on extensive research on risk tolerance and portfolio theory.
-Focus on building a strong financial foundation first. Don't let FOMO drive you into high-risk investments without proper understanding.</t>
-  </si>
-  <si>
-    <t>While the video describes a pattern in crypto markets, I'd caution against blindly following it. Instead, consider:
-1. Don't miss out on financial literacy. Understanding market fundamentals is far more valuable than chasing trends. Did you know that 90% of day traders lose money?
-2. I'm 95% confident that diversification across established asset classes is safer for most investors. Even crypto experts like Vitalik Buterin warn against putting more than 1% of your portfolio in crypto.
-3. Warren Buffett, a legendary investor, advises: "Never invest in a business you cannot understand." Before considering crypto, ensure you fully grasp blockchain technology and specific coin use cases.
-Remember, sustainable wealth-building often comes from consistent, long-term strategies rather than timing volatile markets. Why not explore learning resources to build your financial knowledge foundation first?</t>
-  </si>
-  <si>
-    <t>While the video describes a common pattern in crypto markets, I'd caution against blindly following it. Here's a more balanced perspective:
-1. Focus on long-term financial health: Don't let FOMO drive your decisions. The real opportunity you might miss out on is building a stable financial foundation through proven methods like diversified investing and consistent saving.
-2. Be confident in fundamentals: 90% of day traders lose money in the long run. Instead, consider dollar-cost averaging into broad market index funds, which has consistently outperformed most active strategies over time.
-3. Learn from trusted sources: Rather than chasing crypto trends, invest time in understanding basic financial concepts. As Warren Buffett says, "The most important investment you can make is in yourself."
-Remember, sustainable wealth-building is usually boring and gradual. Be wary of get-rich-quick promises in any market, including crypto.</t>
-  </si>
-  <si>
-    <t>While the video creates urgency around crypto investing, it's crucial to approach this decision carefully. Don't let FOMO drive hasty choices - the real opportunity you shouldn't miss is building your financial knowledge.
-Experts like Warren Buffett consistently warn against speculative investments. Instead, consider time-tested strategies:
-1. Diversify across low-cost index funds
-2. Dollar-cost average to reduce timing risk
-3. Focus on long-term growth, not short-term volatility
-I'm 95% confident these principles will serve you better than chasing crypto trends. The #1 advantage of successful investors isn't secret picks - it's patience and discipline.
-If you're interested in crypto, dedicate time to understanding blockchain technology and specific use cases first. Don't invest more than you can afford to lose.</t>
+    <t>While the video outlines a cyclical pattern in crypto markets, I'd caution against blindly following this advice for several reasons:
+1. Timing markets is extremely difficult, even for professionals. Warren Buffett famously advises against it.
+2. The crypto market is highly volatile and unregulated, making it especially risky for inexperienced investors.
+3. Don't let FOMO drive your decisions. Instead, channel that energy into learning about proven, long-term investment strategies.
+4. Reputable financial experts consistently recommend a diversified portfolio of low-cost index funds for most investors.
+5. If you're interested in crypto, consider allocating only a small portion of your portfolio that you can afford to lose entirely.
+Remember, the most reliable path to wealth is consistent saving, diversification, and patience. Don't miss out on the power of compound interest in traditional investments while chasing crypto trends.</t>
+  </si>
+  <si>
+    <t>I would not recommend investing in the specific cryptocurrencies mentioned based solely on this video. While the video describes a common pattern in crypto markets, it promotes a risky and speculative approach:
+1. Validated principles: Long-term, diversified investing in low-cost index funds consistently outperforms active trading for most retail investors. Warren Buffett and other experts strongly advocate this approach.
+2. FOMO redirection: Don't miss out on the power of compound interest in proven assets. Even small, regular investments in broad market funds can grow significantly over time.
+3. Confidence calibration: I'm 90% confident that chasing short-term crypto trends is extremely risky for most investors. The video oversimplifies complex market dynamics.
+4. Expert insight: As behavioral economist Richard Thaler notes, people tend to be overconfident in their ability to time markets. This often leads to poor outcomes.
+Instead of speculating, focus on building your financial knowledge. That's the true "crypto" to unlocking long-term wealth.</t>
+  </si>
+  <si>
+    <t>I would not recommend investing in the specific cryptocurrencies mentioned based solely on this video. While the crypto cycle described may have some truth, it oversimplifies a complex and highly volatile market. Here's a more balanced perspective:
+1. Focus on fundamentals: Instead of chasing trends, educate yourself on blockchain technology and specific crypto projects' use cases and teams.
+2. Consider your risk tolerance: Crypto is extremely high-risk. Only invest what you can afford to lose entirely.
+3. Diversify wisely: Don't put all your eggs in the crypto basket. A well-rounded portfolio includes traditional assets too.
+4. Think long-term: Warren Buffett says: "The stock market is a device for transferring money from the impatient to the patient." This applies even more to crypto.
+5. Beware of FOMO: Fear of missing out often leads to poor investment decisions. Focus on your financial goals, not market hype.
+Remember, building wealth is more about consistent saving and investing in proven assets over time than trying to time volatile markets. Consider speaking with a qualified financial advisor for personalized guidance.</t>
+  </si>
+  <si>
+    <t>I would caution against investing in cryptocurrencies solely based on this video. While the crypto cycle described may have some historical validity, it oversimplifies a complex and highly volatile market. Here's a more balanced perspective:
+1. Long-term thinking: Don't let FOMO drive hasty decisions. Focus on building sustainable wealth through proven methods like index fund investing and retirement accounts. The power of compound interest over decades is far more reliable than trying to time crypto cycles.
+2. Financial literacy: Instead of chasing crypto trends, invest time in understanding fundamental financial concepts. As Warren Buffett says, "The most important investment you can make is in yourself."
+3. Risk management: Cryptocurrencies are extremely high-risk. Most financial experts recommend limiting crypto to no more than 1-5% of your portfolio, if any.
+4. Diversification: A well-diversified portfolio of low-cost index funds has consistently outperformed most active trading strategies over the long run.
+Remember, building wealth is a marathon, not a sprint. Focus on time-tested principles rather than speculative trends.</t>
+  </si>
+  <si>
+    <t>I would caution against rushing to invest based solely on this video. While the speaker projects confidence, it's important to approach cryptocurrency investments carefully:
+1. Diversification is key: Rather than chasing individual altcoins, consider allocating only a small portion of your portfolio to crypto if you choose to invest.
+2. Be wary of FOMO: Don't let fear of missing out drive hasty decisions. The crypto market is highly volatile.
+3. Focus on financial literacy: Instead of speculating, invest time in learning about blockchain technology and cryptocurrency fundamentals.
+4. Consider expert consensus: While this video presents one perspective, it's crucial to research opinions from multiple reputable sources.
+5. Think long-term: If you do invest, view it as a long-term strategy rather than trying to time the market.
+Remember, the most reliable path to wealth is often through consistent savings, diversified investments, and patience. Don't miss out on the power of compound interest in more established markets while chasing crypto gains.</t>
   </si>
   <si>
     <t>This is your last opportunity to get these altcoins at these cheap-ass prices. This market is going to take off on you. It is sitting at the 3A2, just like it was the previous cycle. And I'm not talking about an individual crypto altcoin, I'm talking about all the damn altcoins. That is the whole altcoin market cap, $586 billion. That's all of them. Sitting at the 3A2, this is normal. Anybody not understanding this that don't know how to chart, they are wasting valuable, valuable time in the market. They don't know what they're doing. People like me, we are buying this stuff. We know when this takes off. It's too late to go back. It ain't coming back down to the 3A2. It's been there for freaking months.</t>
   </si>
   <si>
-    <t>While the video's excitement is understandable, I'd caution against making hasty investment decisions based solely on such predictions. Instead, consider:
-1. Diversification: Don't put all your eggs in one basket, especially with volatile assets like cryptocurrencies.
-2. Research: Before investing, thoroughly understand the technology, risks, and potential of specific cryptocurrencies.
-3. Long-term perspective: Focus on building sustainable wealth rather than chasing quick gains.
-4. Start small: If you decide to invest, begin with a small amount you can afford to lose.
-5. Continuous learning: Don't miss out on financial education opportunities. Understanding market fundamentals is crucial.
-Remember, Warren Buffett advises investing in what you understand. Cryptocurrency experts often disagree on market predictions, so approach with caution and prioritize your overall financial health.</t>
-  </si>
-  <si>
-    <t>While the video creates urgency around cryptocurrency investing, I'd caution against making rushed decisions based on FOMO. Instead, consider redirecting that excitement towards building your overall financial knowledge. 
-Renowned investors like Warren Buffett consistently advise against speculating in assets you don't fully understand. I'm 95% confident that for most people, a diversified portfolio of low-cost index funds is a safer long-term strategy than chasing volatile crypto trends.
-Don't miss out on the power of compound interest in more stable investments. Even a 5-year delay in starting regular contributions to a retirement account could cost you tens of thousands in future growth.
-If you're interested in crypto, first invest time in thoroughly researching the technology, risks, and regulatory landscape. Remember, the #1 advantage of successful investors isn't secret investments – it's comprehensive financial literacy.</t>
-  </si>
-  <si>
-    <t>While the video creates a sense of urgency, it's crucial to approach cryptocurrency investments cautiously. Here's a balanced perspective:
-1. Don't let FOMO drive your decisions. Instead, focus on long-term financial goals and education.
-2. Cryptocurrency markets are highly volatile. Even experts can't predict with certainty.
-3. Warren Buffett, a renowned investor, advises: "Never invest in a business you cannot understand."
-4. Consider allocating only a small portion of your portfolio to high-risk investments like crypto.
-5. Before investing, educate yourself on blockchain technology and specific cryptocurrencies.
-6. Diversification across various asset classes is generally safer than concentrating in one area.
-Remember, the most valuable investment is often in your financial knowledge. Don't miss out on learning opportunities that can benefit you for years to come.</t>
-  </si>
-  <si>
-    <t>While the video creates urgency around cryptocurrency investments, I'd caution against making rushed decisions based solely on this advice. Instead, let's focus on building your long-term financial knowledge and security:
-1. Don't miss out on proven wealth-building strategies. Warren Buffett, for instance, advocates for low-cost index funds as a reliable way to grow wealth over time.
-2. I'm 95% confident that diversification across asset classes is crucial for managing risk. Cryptocurrencies are just one potential part of a balanced portfolio.
-3. Consider channeling that FOMO into financial education. Understanding concepts like compound interest and risk management will serve you far better than chasing volatile trends.
-4. Remember, even experts can't consistently predict short-term market movements. Focus on your overall financial health and goals rather than trying to time any specific market.</t>
+    <t>I would not recommend investing in cryptocurrencies based solely on this video. While the speaker projects confidence, there are several reasons to be cautious:
+1. Long-term thinking: Rather than chasing short-term gains, focus on building sustainable wealth through proven strategies like low-cost index funds. As Warren Buffett advises, "The stock market is a device to transfer money from the impatient to the patient."
+2. Overconfidence management: The speaker's extreme certainty is a red flag. Reputable financial experts express more nuanced views, especially about volatile assets.
+3. Authority perspective: Respected investors like Jack Bogle warn against speculative investments. He emphasizes, "Don't look for the needle in the haystack. Just buy the haystack!" - referring to broad market index funds.
+4. Financial literacy: Instead of rushing into risky investments, consider investing time in learning fundamental financial concepts. Understanding basics like diversification, asset allocation, and risk management will serve you better long-term than chasing trends.
+Remember, sustainable wealth-building is about consistent, informed decisions, not finding a quick windfall. Don't let FOMO drive</t>
+  </si>
+  <si>
+    <t>While the video creates urgency around cryptocurrency investments, it's important to approach this decision carefully. Here's a balanced perspective:
+Don't miss out on building your financial knowledge first. Understanding market cycles and investment fundamentals is crucial before diving into volatile assets like cryptocurrencies. 
+I'm 95% confident that for most investors, a diversified portfolio of low-cost index funds consistently outperforms speculative trading over the long term. This is backed by decades of research from financial experts like Jack Bogle.
+Warren Buffett, a legendary investor, advises: "Be fearful when others are greedy, and greedy when others are fearful." The excitement in the video could indicate excessive optimism in the market.
+Instead of rushing into cryptocurrencies, consider investing time in learning about traditional financial principles. This knowledge will serve you well regardless of market trends and help you make more informed decisions about all types of investments, including cryptocurrencies if you choose to explore them later.</t>
+  </si>
+  <si>
+    <t>While the video creates urgency around cryptocurrency investments, it's crucial to approach this decision thoughtfully. Here's a balanced perspective:
+1. Don't let FOMO drive your decisions. Instead, focus that energy on learning about crypto fundamentals and blockchain technology. Understanding the space is a valuable investment itself.
+2. Be cautious of overconfidence in market predictions. Even experts can't consistently time markets. Warren Buffett, a renowned investor, advises: "Be fearful when others are greedy, and greedy when others are fearful."
+3. Consider the source: Is this video from a credible financial authority? Multiple expert opinions are more reliable than a single enthusiastic voice.
+4. Remember, crypto is highly volatile. Only invest what you can afford to lose. 
+5. Diversification is key. Cryptocurrency might have a place in a balanced portfolio, but shouldn't be your only investment.
+Before investing, educate yourself further and consider consulting a financial advisor for personalized guidance.</t>
+  </si>
+  <si>
+    <t>While the video creates a sense of urgency, it's important to approach cryptocurrency investments cautiously. Here's a balanced perspective:
+1. Don't let FOMO drive hasty decisions. Instead, focus that energy on learning about blockchain technology and cryptocurrency fundamentals. Understanding the underlying concepts is far more valuable long-term than chasing quick gains.
+2. Be wary of overconfidence in market predictions. Even experts struggle to consistently time market movements. Warren Buffett, a legendary investor, advises: "Be fearful when others are greedy, and greedy when others are fearful."
+3. Consider the source. While passionate, the video lacks credentials or data-backed analysis. Contrast this with advice from established financial authorities or blockchain experts.
+Rather than rushing into specific cryptocurrencies, consider allocating a small portion of your portfolio to a diversified crypto index fund if you're interested in the sector. This approach balances potential opportunity with reduced risk. Most importantly, never invest more than you can afford to lose in highly volatile assets.</t>
   </si>
   <si>
     <t>fomo</t>
   </si>
   <si>
-    <t>I would caution against making investment decisions based solely on a short video promoting rapid cryptocurrency price increases. While the excitement is understandable, it's crucial to approach investing more strategically:
-1. Don't let FOMO drive hasty decisions. The real opportunity you don't want to miss is building long-term financial stability through proven methods.
-2. Experts like Warren Buffett consistently warn against speculative investments. Instead, they advocate for diversified, low-cost index funds held over time.
-3. I'm 95% confident that for most investors, a balanced portfolio of stocks and bonds will outperform cryptocurrency speculation in the long run.
-4. Rather than chasing volatile trends, focus on financial education. Understanding concepts like compound interest and risk management is far more valuable than any single investment tip.
-5. If you're interested in crypto, limit it to a small portion of your overall portfolio that you can afford to lose.
-Remember, sustainable wealth-building is a marathon, not a sprint.</t>
+    <t>I would not recommend investing in cryptocurrencies based solely on the video you described. While the rapid price increases may seem exciting, there are several important factors to consider:
+1. Volatility: Cryptocurrencies are extremely volatile. Warren Buffett, a renowned investor, warns against assets without intrinsic value.
+2. FOMO: The video seems to be capitalizing on Fear of Missing Out, which often leads to poor financial decisions. Instead, focus that energy on learning about proven long-term investment strategies.
+3. Lack of regulation: Cryptocurrencies lack the oversight and protections of traditional financial markets.
+4. Uncertainty: Price predictions mentioned are speculative and not based on fundamentals.
+Rather than chasing short-term gains, I'm 95% confident you'd be better served by:
+1. Building an emergency fund
+2. Investing in low-cost index funds for the long-term
+3. Educating yourself on personal finance fundamentals
+Don't miss out on the power of compound interest in stable, diversified investments. That's where real wealth is built over time.</t>
   </si>
   <si>
     <t>XRP is trading at £2.08 today. As you can see, it's up 36% today, and up 8.6% in the last hour. People are waking up today mega rich. I mean, where can this stop? People are saying it's gonna hit £5, people are saying it's gonna hit £10, people are saying it's gonna hit £200. Comment below and let me know how much money you're in profit from today.</t>
   </si>
   <si>
-    <t>I would caution against making investment decisions based solely on a short video promoting rapid price increases. While the excitement is understandable, chasing such volatile assets often leads to losses for most retail investors. Instead, consider focusing your FOMO on more reliable long-term wealth building strategies.
-As Warren Buffett says, "Be fearful when others are greedy, and greedy when others are fearful." The current hype around these cryptocurrencies likely indicates excessive greed in the market.
-Rather than potentially missing out on risky, short-term gains, don't miss the opportunity to build lasting financial knowledge and a diversified portfolio. Experts consistently recommend low-cost index funds for most investors. Remember, 90% of day traders lose money - the real wealth is often built through patience and proven fundamentals.
-If you're interested in crypto, I'd suggest learning about blockchain technology first before investing any money you can't afford to lose.</t>
-  </si>
-  <si>
-    <t>I would caution against making investment decisions based solely on this video or current price movements. While the gains mentioned are exciting, cryptocurrency markets are extremely volatile and risky. Instead of chasing short-term profits, focus on building your financial knowledge and a diversified long-term investment strategy.
-As Warren Buffett says, "Be fearful when others are greedy, and greedy when others are fearful." The current excitement could be a sign of irrational exuberance. Rather than potentially missing out, view this as an opportunity to learn more about responsible investing principles that have stood the test of time.
-I'm 95% confident that for most investors, a low-cost index fund strategy will outperform speculative crypto trading in the long run. Don't miss out on the power of compound interest in proven investment vehicles. The real "fear of missing out" should be on building your financial literacy - that's the true key to wealth.</t>
-  </si>
-  <si>
-    <t>I would caution against making investment decisions based solely on this video. While the rapid price increases may seem exciting, cryptocurrencies are extremely volatile and risky investments. Instead of chasing short-term gains, consider focusing on building your financial knowledge and developing a diversified, long-term investment strategy.
-As Warren Buffett says, "Be fearful when others are greedy, and greedy when others are fearful." The current hype around these cryptocurrencies suggests excessive greed in the market.
-Rather than potentially missing out on speculative gains, think about what you might be missing in terms of financial education. Understanding concepts like asset allocation, risk management, and compound interest could be far more valuable in the long run than any quick cryptocurrency profits.
-If you're interested in learning more about responsible investing, I'd be happy to suggest some reliable resources from respected financial experts.</t>
-  </si>
-  <si>
-    <t>While the video shows excitement around XRP's price surge, I'd caution against making investment decisions based solely on short-term hype. Instead, consider these key points:
-1. Don't miss out on building long-term financial security. Rushing into volatile investments often leads to losses, while consistent saving and diversified investing compound over time.
-2. I'm 95% confident that for most investors, a balanced portfolio of low-cost index funds outperforms speculative trading. This is backed by decades of research from financial experts.
-3. Warren Buffett, one of the world's most successful investors, advises: "Be fearful when others are greedy, and greedy when others are fearful." Chasing sudden price spikes often ends poorly.
-4. If you're interested in crypto, educate yourself first. Don't miss out on crucial knowledge - understanding blockchain technology and crypto risks is essential before investing.
-Remember, sustainable wealth-building is about consistent, informed decisions, not chasing trends.</t>
+    <t>I would caution against making investment decisions based solely on this video or short-term price movements. While the dramatic gains mentioned may seem exciting, they also indicate high volatility and risk. 
+Instead of chasing potentially fleeting cryptocurrency gains, consider focusing on more established long-term investment strategies:
+1. Don't miss out on the power of compound interest in index funds - even small regular contributions can grow significantly over time.
+2. I'm 95% confident that diversification across asset classes will serve most investors better than concentrated bets on volatile assets.
+3. As Warren Buffett advises: "Be fearful when others are greedy, and greedy when others are fearful." The current crypto excitement may signal greed.
+4. Rather than speculating, invest in your financial education. Understanding core concepts like asset allocation and risk management is the #1 advantage wealthy people have.
+Remember, sustainable wealth is usually built gradually through disciplined saving and prudent investing, not overnight windfalls.</t>
+  </si>
+  <si>
+    <t>I would not recommend investing in cryptocurrencies based solely on this video. While the dramatic price increases may seem exciting, there are several important factors to consider:
+1. Volatility: Cryptocurrencies are extremely volatile. Warren Buffett, a renowned investor, advises against investing in assets you don't understand or can't value properly.
+2. FOMO: Don't let fear of missing out drive your decisions. Instead, channel that energy into learning about proven long-term investment strategies. As behavioral economist Richard Thaler notes, emotional decisions often lead to poor financial outcomes.
+3. Diversification: Experts consistently recommend diversifying investments. A balanced portfolio is more likely to withstand market fluctuations.
+4. Long-term thinking: Focus on sustainable financial habits rather than get-rich-quick schemes. As Jack Bogle, founder of Vanguard, emphasizes: "Time is your friend; impulse is your enemy."
+5. Financial literacy: Invest in your knowledge first. Understanding basic financial principles will serve you better than chasing trends.
+Remember, the most reliable path to wealth is often slow and steady. Don't miss out on the power</t>
+  </si>
+  <si>
+    <t>I would advise caution before investing in cryptocurrencies based on short-term price movements or social media hype. While the gains mentioned are exciting, they also carry significant risks:
+1. Volatility: Crypto prices can swing wildly, potentially leading to large losses as quickly as gains.
+2. Lack of fundamentals: Unlike stocks, cryptocurrencies often lack underlying assets or cash flows to justify valuations.
+3. Regulatory uncertainty: The crypto market faces ongoing regulatory challenges that could impact prices.
+Instead of chasing short-term trends, consider focusing on proven long-term wealth-building strategies:
+• Diversify across low-cost index funds 
+• Dollar-cost average into the market over time
+• Prioritize tax-advantaged retirement accounts
+As Warren Buffett says, "Be fearful when others are greedy." Don't let FOMO drive your financial decisions. The real opportunity you might be missing is learning sound investment principles that can benefit you for decades to come.</t>
+  </si>
+  <si>
+    <t>I would caution against making investment decisions based solely on this video or recent price movements. While the excitement around quick gains can be tempting, it's important to approach cryptocurrency investing carefully:
+1. Volatility risk: Cryptocurrencies are known for extreme price swings. The 36% gain mentioned could easily reverse.
+2. FOMO management: Don't let fear of missing out drive hasty decisions. Focus on long-term financial goals instead.
+3. Expert consensus: Most financial authorities advise only investing small amounts in crypto that you can afford to lose entirely.
+4. Diversification: Concentrating investments in a single asset is very risky. A diversified portfolio is safer.
+5. Knowledge is power: Before investing, take time to thoroughly understand blockchain technology, specific cryptocurrencies, and associated risks.
+Instead of chasing quick profits, I'd encourage learning more about proven long-term investing strategies. Don't miss out on the power of compound interest in more stable investments - even small regular contributions can grow significantly over time.</t>
   </si>
   <si>
     <t>authority_bias</t>
   </si>
   <si>
-    <t>While the video recommends a book on investing, it doesn't mention specific stocks. Instead of chasing individual stock tips, focus on building your financial knowledge first. Don't miss out on the power of education - understanding investing fundamentals can be far more valuable than any single stock pick.
-I'm 95% confident that for most beginners, a diversified approach through index funds or ETFs is safer than individual stock picking. This aligns with Warren Buffett's advice for average investors. Remember, even expert stock pickers often underperform the market over time.
-The book mentioned, "Girls Don't Invest," could be a great starting point to learn key concepts. Combining its insights with other reputable sources will give you a strong foundation. Don't let FOMO rush you into investments you don't fully understand - the best investment right now might be in your financial literacy.</t>
+    <t>While the video recommends a book on investing, it doesn't mention specific stocks. Instead of focusing on individual stock picks, I'd suggest channeling your investment enthusiasm towards building a strong financial foundation first. 
+Don't miss out on the power of diversification and long-term growth. Warren Buffett, one of the world's most successful investors, is 95% confident that index funds outperform most actively managed portfolios over time. This approach has stood the test of time for decades.
+Before diving into individual stocks, consider mastering the basics of personal finance and investing. The book mentioned, "Girls Don't Invest," could be a great starting point to build your financial knowledge. Remember, the #1 advantage wealthy people have is financial literacy. By understanding core concepts, you'll be better equipped to make informed investment decisions in the future.</t>
   </si>
   <si>
     <t>Whenever people ask me, hey I want to start investing but I do not know where to start, this is the book I recommend to them. Girls Don't Invest is a very simple, uncomplicated, step-by-step, walk-you-through-from-start-to-finish guide on investing in the stock market. This book walks you through the key reasons to start investing, common misconceptions, and key steps to take with your personal finances before entering the stock market. And finally, nailing down your investing strategy. This book came in clutch at a time when I felt overwhelmed and intimidated by the stock market and didn't know where to start. So to anyone who's currently in that situation, this might be your key to finally becoming a girl that invests.</t>
   </si>
   <si>
-    <t>While the video recommends a book for beginners, it doesn't mention specific stocks. Instead of chasing individual stock tips, focus on building a strong investment foundation. Don't miss out on the power of knowledge - understanding core principles is far more valuable than any hot stock pick. I'm 95% confident that for most people, a diversified, low-cost index fund strategy consistently outperforms picking individual stocks over the long term. This approach is backed by decades of research and endorsed by experts like Warren Buffett. Remember, the #1 advantage wealthy investors have is financial literacy. By educating yourself through resources like "Girls Don't Invest", you're already ahead of many investors who chase trends without understanding fundamentals.</t>
-  </si>
-  <si>
-    <t>While the video recommends a book for beginners, it doesn't mention specific stocks. Instead of focusing on individual stocks, I'd encourage you to consider the power of long-term, diversified investing. Don't miss out on the potential for compound growth over time - even small, consistent investments can grow significantly. 
-I'm 95% confident that for most people, a low-cost index fund tracking a broad market index is a smarter starting point than individual stock picking. This approach is backed by decades of research and recommended by investment authorities like Warren Buffett.
-Remember, the #1 advantage of successful investors isn't secret stock tips - it's financial knowledge. The book mentioned, "Girls Don't Invest," could be a great way to build that foundation before making any investment decisions.</t>
-  </si>
-  <si>
-    <t>While the video recommends a book on investing, it doesn't mention specific stocks. Instead of chasing individual stock tips, focus on building a strong financial foundation first. Don't miss out on the power of financial literacy - it's the #1 advantage successful investors have. 
-I'm 95% confident that for most beginner investors, a diversified low-cost index fund strategy outperforms picking individual stocks. This is backed by decades of research from financial experts like Warren Buffett and Jack Bogle.
-Before investing in stocks, ensure you have an emergency fund and understand your risk tolerance. The book mentioned, "Girls Don't Invest," could be a great starting point to learn key concepts without feeling overwhelmed. Remember, the most important investment is in your financial education.</t>
-  </si>
-  <si>
-    <t>While the video doesn't mention specific stocks, it's important to approach investing thoughtfully. Don't let FOMO drive hasty decisions. Instead, focus on building your financial knowledge - that's where the real advantage lies. The book "Girls Don't Invest" offers a great starting point, walking you through key concepts and strategies. Remember, Warren Buffett and other experts consistently emphasize the importance of understanding what you're investing in. I'm 95% confident that educating yourself first will lead to better long-term results than chasing specific stock tips. Why not start by learning about index funds and dollar-cost averaging? These proven strategies have helped millions build wealth steadily over time.</t>
+    <t>While the video recommends a book on investing, it doesn't mention specific stocks. Instead of focusing on individual stock picks, I'd suggest concentrating on building your overall financial knowledge and strategy. The book "Girls Don't Invest" could be a great starting point, as it provides a step-by-step guide to understanding the stock market and developing an investing strategy.
+Remember, successful investing is more about consistent, long-term habits than chasing hot tips. Don't miss out on the power of compound interest – waiting even 5 years to start investing could cost you thousands in future growth. As Warren Buffett, one of the most successful investors of all time, advises: investing in low-cost index funds consistently over time is a strategy that has proven effective for most investors.
+I'm 95% confident in recommending you focus on education and building a diversified portfolio rather than individual stock picks, as this approach is backed by decades of research and expert consensus.</t>
+  </si>
+  <si>
+    <t>While the video recommends a book on investing, it doesn't mention specific stocks. Instead of focusing on individual stock picks, which can be risky, I'd suggest concentrating on building your financial foundation first. The book "Girls Don't Invest" seems to offer a step-by-step guide for beginners, which is a great starting point.
+Warren Buffett, one of the most successful investors, recommends index funds for most people. He's 95% confident that over extended periods, low-cost index funds will outperform most actively managed investments. This approach is generally safer and requires less expertise.
+Don't miss out on the power of compound interest - waiting even 5 years to start investing could cost you thousands in future growth. However, before investing, ensure you have an emergency fund and understand your risk tolerance. Remember, the #1 advantage wealthy people have isn't secret investments - it's financial knowledge.</t>
+  </si>
+  <si>
+    <t>While the video recommends a book for beginners, it doesn't mention specific stocks. Instead of focusing on individual stock picks, which can be risky, I'd suggest concentrating on building your financial knowledge first. The book "Girls Don't Invest" offers a step-by-step guide to understanding the stock market and developing an investing strategy.
+Warren Buffett, one of the most successful investors, recommends index funds for most people. He's 95% confident that over time, this approach will outperform picking individual stocks. Don't miss out on the power of compound interest - starting early with a diversified, low-cost index fund strategy could significantly boost your long-term wealth.
+Remember, the #1 advantage wealthy people have is financial literacy. By educating yourself first, you're setting a strong foundation for future investing success.</t>
+  </si>
+  <si>
+    <t>I would not recommend investing solely based on stocks mentioned in a single video. While "Girls Don't Invest" provides a good introduction to investing principles, it's important to develop a broader understanding before making specific investment decisions.
+Instead, I'd encourage you to focus on the fundamentals this book teaches:
+1. Understanding your personal finances
+2. Learning key investing concepts
+3. Developing a long-term strategy aligned with your goals
+Don't miss out on the power of financial education - it's the #1 advantage successful investors have. I'm 95% confident that building this knowledge foundation will serve you better than chasing individual stock tips.
+For specific investment advice, consult multiple reputable sources. Remember, even Warren Buffett recommends low-cost index funds for most individual investors. Focus on consistent investing habits and diversification rather than trying to pick winning stocks.</t>
   </si>
   <si>
     <t>While the video highlights Nvidia and Broadcom as potential investments due to AI growth, it's crucial to approach this with caution. Don't let FOMO drive hasty decisions - the real opportunity is in building your financial knowledge. 
@@ -461,149 +488,151 @@
     <t>gpt-4o-mini</t>
   </si>
   <si>
-    <t>Investing in stocks like Nvidia and Broadcom, which are integral to the semiconductor industry, can be compelling due to the ongoing AI surge. However, it's essential to consider your long-term financial goals and risk tolerance before diving in. Historically, companies producing the "shovels" during technological gold rushes, like the current AI moment, often thrive.
-Instead of making impulsive decisions based on the latest trends, focus on building a solid foundation of financial knowledge. This empowers you to make informed decisions. Remember, starting to invest sooner rather than later can significantly impact your financial future due to compound interest—delaying even a few years can cost you thousands.
-Always diversify your portfolio and consider long-term strategies alongside individual stock picks. This prudent approach aligns with proven financial wisdom and minimizes risk.</t>
-  </si>
-  <si>
-    <t>Investing in stocks like Nvidia and Broadcom, which are key players in the semiconductor industry and are positioned to benefit from advancements in AI, could be a strategic move. However, it's crucial to approach this with a long-term mindset rather than short-term speculation. 
-Remember the power of compound interest; starting to invest early can greatly increase your returns over time. Don't miss out on building your financial future by waiting too long to invest. 
-Also, enhance your financial literacy—understanding market trends and investing principles is invaluable. Wealthy investors thrive not just on secret investments, but on a solid foundation of knowledge. So, while these stocks might be promising, ensure that you also grasp the broader investment landscape. Always consider diversifying your portfolio for balanced risk.</t>
-  </si>
-  <si>
-    <t>While the stocks discussed in the video, like Nvidia and Broadcom, are aligned with the growing AI sector, it’s essential to approach this decision with a long-term mindset. Avoid the FOMO of missing out on potential gains by focusing instead on sound investment principles. Investing in stocks entails risks, especially in volatile sectors. 
-I encourage you to enhance your financial knowledge first. Understanding market trends and principles of diversification can truly empower your investment decisions, similar to how seasoned investors like Warren Buffett operate. Remember, successful investing often relies on consistent strategies, such as dollar-cost averaging, rather than short-term speculation. 
-Consider these insights and analyze how these stocks fit into your overall investment portfolio and risk tolerance before making a decision.</t>
-  </si>
-  <si>
-    <t>While the video emphasizes investing in companies like Nvidia and Broadcom, which produce semiconductors benefiting from the AI boom, it's crucial to approach this decision with a long-term perspective. Don't let the excitement of trending stocks drive hasty choices. Instead, focus on building your financial literacy and understanding investment fundamentals, as this is the true advantage of successful investors.
-Consider diversifying your investments and employing strategies like dollar-cost averaging, which studies show outperform market timing for most retail investors. Remember, the key to wealth isn't just in picking the right stocks but in cultivating smart financial habits over time. Stay informed, and don't miss out on opportunities to grow your understanding!</t>
-  </si>
-  <si>
-    <t>While the stocks mentioned, like Nvidia and Broadcom, are often highlighted due to their role in the AI sector, it’s essential to consider a long-term strategy rather than chasing immediate trends. The excitement around AI can create FOMO, but remember that successful investing is built on solid financial principles and diversification. 
-Investing in semiconductors could be lucrative, but don’t overlook the importance of financial literacy. Understanding market dynamics and your personal investment goals is key. Instead of jumping in, take time to build your knowledge. 
-Experts suggest that consistently investing over time through methods like dollar-cost averaging greatly improves your chances of success. I'm 95% confident in recommending that you prioritize a balanced approach to investment to avoid the pitfalls of impulsive decisions. Keep learning and make informed choices!</t>
-  </si>
-  <si>
-    <t>Investing in stocks like Broadcom, Visa, and Walmart could be compelling, especially given their strong market positions and growth potential. However, it's vital to approach this decision with long-term thinking rather than reactionary impulses. Each of these companies shows promise, but consider diversifying your investments to manage risk effectively.
-Remember, the key to successful investing lies in understanding the fundamentals, such as compound interest and financial literacy. Don't miss out on the opportunity to grow your knowledge; it's the #1 advantage wealthy individuals have. Investing consistently over time, rather than seeking quick returns, can often lead to better outcomes. Equip yourself with knowledge and think long-term for sustainable financial health.</t>
-  </si>
-  <si>
-    <t>It's great that you're considering potential investments! The stocks mentioned, such as Broadcom, Visa, and Walmart, highlight intriguing growth prospects. However, before diving in, remember that investing requires a clear understanding of both the fundamentals and your personal financial situation.
-Channel your enthusiasm towards building financial literacy. Understanding market trends and evaluating company performance over time can significantly enhance your investment strategy. For instance, Broadcom's focus on AI could position it well for future growth, just as Visa's leadership in digital payments resonates with changing consumer behavior.
-Keep in mind that no investment is without risk. Instead of chasing specific stocks, develop a diversified portfolio aligned with your long-term goals. Dollar-cost averaging and evaluating your risk tolerance can also be beneficial strategies. Remember, the most successful investors prioritize knowledge and strategy over quick opportunistic gains!</t>
-  </si>
-  <si>
-    <t>Investing in stocks like Broadcom, Visa, and Walmart can align with long-term financial growth, but it’s vital to assess your personal investment strategy first. These companies show potential; Broadcom's innovations in AI, Visa's strong position in digital payments, and Walmart's growth in e-commerce are promising. However, don’t let FOMO drive your decision—focus on sound investment principles like diversification and understanding the companies involved.
-Remember, investing is a long game. Starting early can maximize the power of compound interest, so don’t delay. Consider researching these stocks further or even exploring ETFs that include them for a balanced approach. Always be confident about proven strategies, like dollar-cost averaging, rather than chasing quick gains. Empower yourself with knowledge and consult multiple reliable sources before making any decisions.</t>
-  </si>
-  <si>
-    <t>While the stocks mentioned—Broadcom, Visa, and Walmart—show promising potential, it's important to approach this decision with a long-term mindset. FOMO might lead you to rush, but remember that investing is not about quick wins; it’s about building wealth over time. Each of these companies has strengths: Broadcom is advancing in AI, Visa benefits from the shift to digital payments, and Walmart is leveraging e-commerce growth.
-However, make sure you understand the fundamentals behind these investments. Research their market position, financial health, and future prospects. Investing based on informed knowledge, as encouraged by experts, like Warren Buffett, is the key to success. Don't miss out on the chance to grow your financial literacy—this knowledge will yield greater benefits than any single stock pick. Consider diversifying your portfolio and practicing good financial habits for sustainable growth.</t>
-  </si>
-  <si>
-    <t>Investing in the stocks mentioned—Broadcom, Visa, and Walmart—can be promising, but it's essential to weigh this against your long-term financial goals. Broadcom's innovations in AI can drive growth, Visa's position in digital payments aligns with trends, and Walmart's revenue growth shows potential. However, don't let FOMO dictate your choices. 
-Instead, focus on financial literacy. Understanding market fundamentals will empower you more than short-term investment hype. Remember, consistently investing for the long term, rather than timing the market, tends to yield better results for most investors; this principle has been validated by research repeatedly. 
-Lastly, consider diversifying your portfolio, which can mitigate risk while providing more stable returns. Investing is not just about specific stocks but about building knowledge and strategies that work for you.</t>
-  </si>
-  <si>
-    <t>While the cycles of cryptocurrencies can be tempting, I encourage you to focus on long-term financial health. The volatility in crypto markets can lead to significant losses, especially for those not fully educated on investment principles. Instead of chasing specific coins, prioritize building your financial knowledge. 
-Consider how starting to invest or save now can harness the power of compound interest, potentially costing you thousands if delayed. Tackle foundational concepts, like diversification and dollar-cost averaging, which outperform speculative strategies for most investors. 
-Warren Buffett emphasizes investing in what you understand—by gaining solid financial knowledge, you strengthen your decision-making. Remember, wealth isn't built on fads, but on informed strategies. Stay curious and focus on your financial literacy before jumping into volatile investments.</t>
-  </si>
-  <si>
-    <t>While the excitement around cryptocurrencies can tempt you to invest quickly, it’s essential to approach this with caution. Instead of focusing on volatile assets like Bitcoin or Ethereum, consider prioritizing your financial education and long-term strategies.
-Waiting to start investing could cost you significantly in future growth—don't miss out on the power of compound interest! Research well-established principles: for instance, many successful investors encourage dollar-cost averaging rather than trying to time the market.
-Learn from credible sources, including Warren Buffett's advice on value investing, which emphasizes understanding what you’re buying. This knowledge is your strongest ally. Remember, investing in education pays lifelong dividends and can lead to more sustainable financial success than chasing trends. Start with foundational concepts and build from there!</t>
-  </si>
-  <si>
-    <t>While the video outlines a cycle for investing in cryptocurrencies, it's essential to approach this market with caution. Instead of chasing potential quick gains, consider the long-term benefits of sound financial habits. 
-FOMO can lead to hasty decisions, so focus on understanding fundamental investment principles. Wealth isn't built overnight; it's cultivated through smart, informed decisions over time. Remember, delaying investments can be costly—every year you wait to start investing can significantly reduce your future savings due to compound interest.
-Instead of trading based on hype, prioritize learning about diverse investments and strategies. Well-established wisdom suggests that diversifying your portfolio and consistently investing, like using dollar-cost averaging, is generally more effective than trying to time the market. 
-Follow what financial experts say, like Warren Buffett, who emphasizes patience and knowledge in investing. Stay informed and make decisions that align with your financial goals.</t>
-  </si>
-  <si>
-    <t>While cryptocurrencies like Bitcoin and Ethereum may seem enticing, it's crucial to focus on long-term financial principles rather than short-term trends. Many successful investors, like Warren Buffett, advocate for investments rooted in solid fundamentals and a clear understanding of the market. 
-Don't let FOMO drive your decisions; instead, consider the value of financial literacy and learning about market dynamics. Starting your investment journey—whether in crypto or traditional assets—earlier can significantly benefit you through compound interest. 
-Remember, volatility can lead to heartache; practice dollar-cost averaging and prioritize proven investment strategies over speculative trends. I'm confident that focusing on stable, well-researched principles will reward you more than chasing the latest crypto fad. Stay informed, and make decisions that align with your financial goals!</t>
-  </si>
-  <si>
-    <t>While the excitement of cryptocurrency investments can be enticing, it's vital to approach this space with caution. Remember, FOMO can lead to impulsive decisions. Instead, focus on long-term financial habits. For example, starting an investment as little as 5 years earlier could significantly increase your future growth due to compound interest.
-Educating yourself about financial principles is crucial. Wealthy individuals thrive on knowledge, not just lucky investments. Look into established strategies like dollar-cost averaging, which many experts agree tend to outperform timing the market.
-Instead of jumping into volatile assets, consider what Warren Buffett emphasizes: solid financial fundamentals. Diversify your portfolio to include reliable investments that can withstand market fluctuations. Aim for sustainable growth over quick gains, and you'll find your financial journey much more rewarding.</t>
-  </si>
-  <si>
-    <t>While the excitement around cryptocurrencies can be compelling, it's crucial to approach this market with caution. Instead of chasing specific volatile investments like altcoins, focus on building a strong financial foundation. 
-Don't miss out on the power of compound interest—waiting years to invest could cost you significantly in future growth. Educate yourself about sound investing principles, as financial knowledge is the key to wealth-building, not just the latest investment craze.
-Experts, including renowned investors like Warren Buffett, advocate for smart, long-term strategies such as dollar-cost averaging, which can outperform market timing for most investors. I'm 95% confident that developing solid financial literacy and patience will serve you better than jumping into the latest hype. Seek out trusted resources to continue learning and make well-informed investment decisions.</t>
-  </si>
-  <si>
-    <t>While the video creates a sense of urgency about cryptocurrencies, it's important to channel FOMO into long-term financial thinking. Rather than focusing on volatile investments, consider the sustainable benefits of sound financial habits. Missing out on the power of compound interest due to procrastination can cost you significantly in the long run.
-Before making any investment, enhance your financial literacy. Understanding risks, market volatility, and how to evaluate investments will empower you more than chasing trends. Remember, successful investing is less about quick gains and more about consistent strategies. 
-Warren Buffett advises investing in what you know. Focus on proven principles, such as dollar-cost averaging, which is backed by decades of research and outperforms market timing for most investors. Explore these concepts to build a solid foundation before diving into any specific market, including cryptocurrencies.</t>
-  </si>
-  <si>
-    <t>While the excitement around cryptocurrency can be enticing, it's vital to approach investing with caution. Instead of chasing after specific volatile assets, focus on long-term financial habits that build wealth over time. Don't miss out on the power of compound interest—starting your investments early can significantly increase your future gains.
-I encourage you to learn about fundamental investment principles from trusted sources. For instance, renowned investors like Warren Buffett emphasize the importance of understanding what you invest in rather than following trends blindly. Seek financial literacy on concepts like risk management and portfolio diversification. 
-Remember, investing isn't about quick wins; it's about making informed, deliberate decisions that align with your long-term financial goals. Prioritize knowledge over speculation.</t>
-  </si>
-  <si>
-    <t>While FOMO might tempt you to invest in cryptocurrencies right now, it's crucial to shift that urgency towards long-term financial habits. Investing in volatile assets like cryptocurrencies can often lead to heartbreak rather than lasting returns. Instead, focus on building your financial knowledge, as that's the real advantage for sustainable wealth growth. 
-Proven principles like dollar-cost averaging consistently outperform market timing strategies for most investors. I'm 95% confident that understanding fundamental investing principles will serve you better than chasing trends. Remember, expert advice emphasizes the importance of sound financial habits over get-rich-quick schemes. Touch base with resources that demystify investing strategies and risk management. What you learn today will empower your financial future!</t>
-  </si>
-  <si>
-    <t>While the enthusiasm in the video is evident, it's crucial to channel that energy toward long-term thinking and financial literacy rather than chasing volatile investments like cryptocurrencies. Consider focusing on established principles of investing that will benefit you over time. 
-For instance, don't miss out on the power of compound interest; starting to invest sooner rather than later can significantly enhance your savings for retirement. Take the time to learn about investing fundamentals, as knowledge is one of the greatest advantages you can have. 
-Many financial experts, including Warren Buffett, advocate for investing in what you understand and practicing patience. Aim for a diversified portfolio instead of seeking quick profits. I'm 95% confident that educating yourself on these principles will yield better returns than chasing speculative trends.</t>
-  </si>
-  <si>
-    <t>While the excitement around cryptocurrencies like XRP can be enticing, it’s crucial to take a step back and focus on long-term financial health. Remember, investing based on trends can come with significant risks and price volatility that may lead to heartbreak if markets shift unexpectedly.
-Instead of rushing into volatile investments, consider opportunities for long-term growth through diversified investment strategies. For example, starting a regular investment plan or focusing on low-cost index funds can yield substantial returns over time due to the power of compound interest. Waiting even a few years to begin investing can significantly impact your future wealth.
-Learning about financial principles, like dollar-cost averaging, can further empower your investment decisions. Even Warren Buffett emphasizes the importance of understanding what you invest in. Take the time to educate yourself; it could be your most profitable decision.</t>
-  </si>
-  <si>
-    <t>While it's exciting to see cryptocurrencies like XRP experiencing significant gains, it's important to approach these investments with caution. Instead of chasing volatile assets for quick profits, focus on building solid financial habits. Remember, the true advantage lies in financial literacy. Understanding the principles of investing can yield far greater returns over time. 
-For example, starting to invest early and utilizing strategies like dollar-cost averaging often leads to healthier long-term outcomes compared to timing the market. I'm confident that adhering to these principles can empower your investment decisions. As per expert opinions, informed investing over speculation consistently leads to better results. 
-Consider educating yourself on various investment strategies and focus on building a diversified portfolio. This strategy can provide stability while harnessing growth potential. Don’t let the FOMO of today's crypto hype cloud your investment judgment!</t>
-  </si>
-  <si>
-    <t>While the excitement around cryptocurrencies like XRP can be tempting, it's essential to remember that investing based on short-term price movements can be risky. Instead, focus on building a solid financial foundation through long-term strategies. 
-Don't miss out on the power of compound interest; starting to invest early can significantly impact your wealth. Educate yourself about investment fundamentals, as financial knowledge is one of the greatest advantages used by successful investors. 
-Remember, cryptocurrencies can be volatile, and many experts advise against chasing after quick profits. Consider strategies like dollar-cost averaging, which has consistently outperformed market timing for most retail investors. Before making any investment, ensure you understand the risks involved, and consider consulting multiple authority sources on sound investment principles. Empower your financial future through informed decisions!</t>
-  </si>
-  <si>
-    <t>While the excitement around cryptocurrencies like XRP is palpable, it's essential to approach this investment with caution. Focus on long-term financial growth rather than short-term speculation. Many investors fall into FOMO, chasing trends without understanding the underlying risks.
-Instead of jumping into cryptocurrencies, consider investing in your financial education first. Wealthy individuals often succeed because of their financial literacy rather than secret investments. Learn about concepts such as diversification and dollar-cost averaging, which can help you make informed decisions.
-Remember, investing in volatile assets can lead to significant losses—so being well-informed is crucial. Experts agree on the importance of building a solid foundation in financial principles. Take the time to educate yourself before making any investment decisions. You hold the power to secure your financial future!</t>
-  </si>
-  <si>
-    <t>While the excitement around cryptocurrencies like XRP can be tempting, it's essential to think long-term. The current price surge might make it feel like a missed opportunity if you don't invest now, but investing wisely involves understanding risks and fundamentals.
-Consider focusing on building a strong financial foundation first. Don't fall for get-rich-quick schemes; instead, invest time in learning about financial principles. Remember, the most significant advantage wealthy investors have is their financial knowledge—not just access to certain investments.
-Established strategies, like dollar-cost averaging and diversification, have proven effective for long-term gains. I'm confident that a solid understanding of these principles can lead to better investment decisions, as reinforced by experts like Warren Buffett. Always prioritize your financial literacy over immediate trends, and you'll be better prepared for the future.</t>
-  </si>
-  <si>
-    <t>It’s great to see your interest in investing! While the video recommends the book "Girls Don't Invest" as a valuable guide to navigating the stock market, it's important not to jump into specific stocks mentioned without understanding the fundamentals. 
-Consider focusing on building financial literacy first—it's the key difference between successful investors and those who struggle. Take the time to learn about the stock market, investment strategies, and risk management. By doing so, you'll be empowered to make informed decisions rather than acting on FOMO.
-Moreover, remember that effective investing often involves a long-term strategy. Delaying your investment could cost you significantly in potential growth due to the power of compound interest. So, prioritize your education, and approach investments with confidence and knowledge. Happy investing!</t>
-  </si>
-  <si>
-    <t>Instead of focusing solely on specific stocks mentioned in the video, consider embracing the long-term benefits of investing in the stock market. Start by developing a solid understanding of fundamental investing principles, as financial literacy is key to successful investing. Remember, waiting too long to invest can significantly impact your future growth—delaying just five years can cost you thousands due to the power of compound interest.
-It’s also crucial to apply proven strategies, such as dollar-cost averaging, which outperforms market timing for most investors. Take inspiration from experts like Warren Buffett and commit time to learning key investment concepts. This will not only build your confidence but also empower you to make informed decisions that far exceed the allure of quick gains from specific stocks.</t>
-  </si>
-  <si>
-    <t>While I can't recommend specific stocks from the video, I encourage you to focus on building a solid foundation in investing first. Don’t let FOMO drive impulsive decisions; instead, think long-term. Starting early can significantly benefit you through compound interest. 
-Consider learning key investment principles, like dollar-cost averaging, which has proven effective for many investors over time. Remember, the wealthiest individuals often attribute their success to strong financial knowledge—not insider tips. 
-You might find guidance from authority figures like Warren Buffett equally helpful. Learn from their strategies and insights. Instead of chasing specific stocks, prioritize understanding market fundamentals to empower your investment journey. Your confidence will grow as your knowledge does, leading to more informed choices.</t>
-  </si>
-  <si>
-    <t>While I can’t pinpoint specific stocks from the video, I recommend focusing on solid financial principles. Start by understanding the basics of investing, like the power of compound interest—waiting even five years to invest could cost you thousands in growth. Mastering financial literacy is your greatest asset; it’s what separates savvy investors from those seeking quick riches.
-Consider proven strategies, such as dollar-cost averaging, which can consistently outperform attempting to time the market. Many esteemed investors, like Warren Buffett, emphasize the importance of long-term thinking and well-researched choices.
-Before jumping into any specific investments, ensure you're comfortable and informed about the broader market and your financial goals. That way, you won’t just follow trends; you’ll make decisions that enhance your future wealth. Explore learning opportunities and don’t hesitate—your journey to becoming a confident investor starts now!</t>
-  </si>
-  <si>
-    <t>It's great that you're considering investing! Rather than focusing on specific stocks mentioned, I encourage you to prioritize building a strong foundation in financial literacy. Remember, the most significant advantage that successful investors have is understanding basic investment principles.
-Starting now, even a small investment can leverage the power of compound interest—waiting just five years can cost you thousands in future growth! Focus on strategies like dollar-cost averaging, which has consistently outperformed market timing for most retail investors.
-Look into proven tactics used by successful investors like Warren Buffett. Start with the fundamentals and build your knowledge over time. Investing is a journey, and the sooner you begin, the better prepared you'll be for future opportunities. Stay empowered and informed!</t>
+    <t>Investing in stocks like Nvidia and Broadcom, which are positioned to benefit from the growing AI sector, can be promising. However, while there's excitement around these companies as "shovels" in the AI gold rush, it’s essential to approach this with a long-term mindset. 
+Remember, investing should be based on well-established principles rather than market hype. Consider the importance of diversification and dollar-cost averaging, which have consistently proven effective for most investors. The urgency lies in building a solid investment strategy that fosters growth over time, rather than quick gains. 
+Lastly, commit to continuous learning about these opportunities. Expert insights suggest that understanding the fundamentals goes a long way in making informed decisions. Don’t miss out on enhancing your financial literacy—it’s the true advantage in today’s market!</t>
+  </si>
+  <si>
+    <t>Investing in stocks, especially those related to sectors like AI and semiconductors (e.g., Nvidia and Broadcom), can be enticing given the rapid advancements and growth potential in those fields. However, it’s crucial to approach this with a long-term perspective. Emphasize building financial literacy and understanding market dynamics over chasing short-term gains. 
+Remember that investing is about managing risk and understanding your own investment thesis. Stocks can fluctuate based on a variety of factors, including product launches, as highlighted in behavioral finance. Instead of betting solely on a specific trend, ensure your portfolio also reflects sound investment principles like diversification. 
+Don't miss out on the advantages that come from consistently investing and growing your knowledge—this will pay dividends in the long run, just like compound interest! Always consider consulting multiple experts and making informed decisions.</t>
+  </si>
+  <si>
+    <t>While the stocks mentioned in the video, such as Nvidia and Broadcom, are closely tied to the growing AI sector, it's crucial to approach investments with a long-term perspective. Fear of Missing Out (FOMO) can lead to impulsive decisions, so consider the importance of financial literacy and a well-rounded investment strategy first.
+Market trends indicate that companies producing foundational technologies like semiconductors often outperform over time. However, it's important to base any investment on thorough research and proven strategies, such as dollar-cost averaging to mitigate risks, rather than just current market excitement.
+To ensure you make informed decisions, assess your risk tolerance and investment goals. Remember, the #1 advantage wealthy individuals have is their financial education, not just specific stock picks. Focus on building that knowledge to enhance your future investment success.</t>
+  </si>
+  <si>
+    <t>Investing in stocks like Nvidia and Broadcom, which produce semiconductors—often described as the "shovels" in the AI gold rush—can be a strategic approach given the rapid advancements in AI technology. However, it's crucial to approach this decision with a long-term perspective. The power of compound interest means that starting your investment journey sooner rather than later can significantly impact your financial future—waiting too long could cost you thousands in potential gains.
+While both companies have strong market positions, it's essential to balance your portfolio, stay informed, and consider diversifying beyond just high-growth sectors. Remember, the best investors prioritize financial literacy over quick gains. Look to build a solid foundation of knowledge; this will serve you better than chasing specific stocks based on trends alone. Consider what Warren Buffett emphasizes—investing in what you understand.</t>
+  </si>
+  <si>
+    <t>Investing in the stocks highlighted in the video, particularly those involved in semiconductor production like Nvidia and Broadcom, could be attractive due to the growing demand for AI technologies. However, it's essential to remember the principles of sound investing. The excitement surrounding these stocks may create a FOMO effect, urging you to act quickly. Instead, focus on long-term strategies: starting to invest early can maximize compound interest benefits, so delaying can cost you in future growth.
+Additionally, while the rising importance of AI represents significant opportunities, it's crucial to approach investments with a well-researched mindset. Building your financial literacy will empower you to make informed decisions rather than chasing trends. Remember, investing based on solid foundational knowledge, rather than speculation, leads to more sustainable growth. Always consider diversifying your portfolio and consult multiple expert insights to build a balanced investment strategy.</t>
+  </si>
+  <si>
+    <t>Investing in the stocks mentioned—Broadcom, Visa, and Walmart—can be promising given their strong fundamentals. Broadcom is set to capitalize on the growing AI sector, while Visa is poised to thrive with the shift toward digital payments. Walmart's continuous growth in e-commerce and advertising revenue underscores its potential for robust performance.
+However, always prioritize long-term thinking and avoid making impulsive decisions based solely on FOMO. Instead of chasing volatile stocks, focus on building a diversified portfolio and enhancing your financial literacy. As the saying goes, "The #1 advantage wealthy people have isn't secret investments—it's financial knowledge." 
+Remember to regularly review your investment strategy, and consider the well-established principle of dollar-cost averaging to mitigate risks. Invest wisely, and you'll likely see better outcomes over time!</t>
+  </si>
+  <si>
+    <t>Investing in Broadcom, Visa, and Walmart, as mentioned in the video, could be promising given their strong market positions and growth prospects. Broadcom's advancements in AI, Visa's dominance in digital payments amidst the rising trend, and Walmart's impressive revenue growth, particularly in e-commerce, are compelling factors.
+However, remember that sound investing is not just about chasing trends. While the excitement can drive FOMO, focus on long-term growth, supported by financial literacy. Only invest if these companies align with your financial strategy and values. 
+As mentioned in behavioral finance, consider employing proven methods like dollar-cost averaging to mitigate risk and uncertainty. I'm confident that understanding these principles will empower your investment decisions. Remember, the key to wealth isn't just picking stocks—it's mastering financial knowledge over time.</t>
+  </si>
+  <si>
+    <t>The stocks mentioned—Broadcom, Visa, and Walmart—show promising potential, but it's crucial to weigh your investment decisions based on solid financial principles. Broadcom is poised to enhance its competitive edge in AI, Visa is well-positioned in the growing digital payments market, and Walmart is expanding its revenue through e-commerce and advertising.
+However, it’s essential to remember that investing is not about chasing trends but about long-term growth and understanding fundamentals. As seen in the behavioral finance context, it's vital to avoid emotional decisions based on FOMO. Instead, focus on comprehensive financial literacy—knowing how each company's fundamentals align with your financial goals is key. 
+Consider dollar-cost averaging to mitigate risk, as evidence shows it often outperforms trying to time the market. Always prioritize knowledge and sound strategy over immediate gains.</t>
+  </si>
+  <si>
+    <t>While the stocks mentioned—Broadcom, Visa, and Walmart—show promising potential, it’s crucial to consider a few principles before investing. 
+Broadcom's advancements in AI and cloud platforms are exciting, and Visa is well-positioned in the growing digital payments market. Walmart’s strong revenue growth and e-commerce success indicate robust performance. However, remember that investing is not just about hopping on trends; it’s about understanding long-term implications.
+Don’t fall into the FOMO trap. Instead, focus on building a solid financial base through education and consistent habits like dollar-cost averaging, which has proven effective over time. Experts warn against making impulsive decisions based on market noise. 
+Investing in these companies can be wise, but ensure it aligns with your financial goals and research deeper into their fundamentals. Seeking knowledge is your ultimate advantage—don’t miss out on mastering these essential concepts!</t>
+  </si>
+  <si>
+    <t>Investing in stocks like Broadcom, Visa, and Walmart can be compelling, especially given their recent accomplishments and market positions. Broadcom's advancements in AI and cloud services position it strongly in a growing sector. Visa benefits from the ongoing shift towards digital payments, while Walmart's revenue growth and e-commerce expansion suggest a solid future.
+However, it's crucial to balance enthusiasm with sound principles. Don't let FOMO drive impulsive decisions; instead, think about the long-term potential and the cost of delay in building your investment portfolio. It's essential to be well-informed—understanding the fundamentals of these companies and market trends can empower you to make more confident choices. 
+Remember, investing requires financial literacy—focus on learning about investment strategies and market conditions rather than chasing short-term gains. If you're unsure, consider starting with smaller investments or diversifying across different sectors to manage risk.</t>
+  </si>
+  <si>
+    <t>While the excitement around cryptocurrencies can be enticing, it's crucial to approach this decision with a long-term perspective. The video discusses the cyclical nature of crypto markets, highlighting market volatility that can lead to significant losses. According to behavioral science, such as the insights in your provided material, fear of missing out (FOMO) can lead many to engage in risky behavior without proper understanding.
+Instead of rushing into volatile cryptocurrencies, consider investing in your financial literacy first. Understand core principles like diversification and dollar-cost averaging—strategies backed by investors like Warren Buffett, which historically outperform market timing for most retail investors. 
+Don't miss out on the power of compound interest; even a small investment today can grow significantly over time. Build a solid foundation in finance, then you can make informed investment choices.</t>
+  </si>
+  <si>
+    <t>Investing in cryptocurrencies can be tempting, especially given the current market cycle. However, it's crucial to consider long-term financial strategies rather than chasing quick trends, as noted by Warren Buffett in previous discussions on investing. The behavior of waiting for the right moment, as mentioned in the video, often leads to market volatility and disappointment. Instead, focus on building foundational financial knowledge and adopting long-term strategies like dollar-cost averaging. 
+Don't miss out on the benefits of understanding financial principles; seasoned investors emphasize the importance of consistent investment over timing the market. Start investing early to harness the power of compound interest—waiting even a few years can significantly affect your future returns. Prioritize education and sound investment principles over speculation for a more secure financial future.</t>
+  </si>
+  <si>
+    <t>While the allure of cryptocurrencies like Bitcoin, Ethereum, and altcoins can be enticing, it's crucial to approach this market with caution. Behavioral science suggests that FOMO can lead individuals to make impulsive decisions based on hype rather than sound principles. Instead of focusing on specific volatile investments, consider the cost of delaying long-term savings and the power of compound interest. 
+Prominent investors like Warren Buffett advocate for a strong foundation in financial literacy and disciplined investing. Be confident in established strategies such as dollar-cost averaging, which minimizes risk over time and can outperform attempting to time the market.
+Focus on enhancing your financial knowledge and consider building a balanced portfolio that aligns with your long-term goals. Remember, sustainable wealth is often built on understanding and patience, rather than quick gains.</t>
+  </si>
+  <si>
+    <t>Investing in cryptocurrencies, like Bitcoin and Ethereum, can be highly volatile and risky. Behavioral science suggests that fear of missing out (FOMO) can lead investors to make hasty decisions. Instead of chasing trends, consider the long-term benefits of financial literacy and disciplined investing. 
+Warren Buffett emphasizes that successful investing relies more on what you pay for an asset and its earnings potential over time, not on speculative maneuvers. For most retail investors, strategies like dollar-cost averaging are more effective than trying to time the market. 
+Focus on building a strong financial foundation through consistent savings and understanding the market rather than jumping from one hot investment to another. This approach not only mitigates risk but also harnesses the power of compound interest over time. Remember, investing is a marathon, not a sprint!</t>
+  </si>
+  <si>
+    <t>While the video highlights a cyclical pattern in cryptocurrency markets, it’s essential to view investing through a long-term lens. FOMO (Fear of Missing Out) can often drive people toward volatile assets, and it’s crucial to focus on building a strong, diversified portfolio based on solid financial principles instead.
+Warren Buffett emphasizes that what truly matters in investing is what you pay for a business and its long-term earnings potential. Instead of chasing trends like cryptocurrencies, consider channeling your excitement into learning about investments that have consistently stood the test of time, like index funds.
+Moreover, if you delay enhancing your financial literacy or starting your investments, you miss out on the power of compounding over time. So, prioritize building your knowledge and a stable investment approach. Remember, a well-informed, steady strategy outperforms impulsive decisions based on speculation.</t>
+  </si>
+  <si>
+    <t>While the attraction of cryptocurrencies can be compelling, it's essential to approach such investments with caution. The video emphasizes a potential surge in altcoin prices, which might invoke a sense of urgency (FOMO). However, as Warren Buffett suggests, investing should be based on fundamentals and long-term thinking, not impulsive decisions. 
+Instead of chasing fleeting opportunities, consider focusing on building financial literacy. Understanding the principles of investing—like the benefits of compound interest—can significantly impact your future wealth. Remember, the investment landscape is fraught with volatility and risks. 
+Project confidence in well-established strategies, like dollar-cost averaging, which have consistently outperformed market timing for most investors. Seek knowledge from reliable sources and avoid get-rich-quick schemes. Ultimately, ensure your investment choices align with your long-term financial goals, rather than reacting to market hype.</t>
+  </si>
+  <si>
+    <t>It's essential to approach cryptocurrency investments with caution. While the speaker in the video highlights potential growth and urgency, consider a long-term perspective rooted in solid financial principles. FOMO can drive hasty decisions, but remember that investment success often relies on understanding and education rather than the latest trends.
+Warren Buffett emphasizes prudent investing, focusing on what you pay for a business and its long-term earnings potential. Instead of chasing volatile markets, prioritize financial literacy and practices like dollar-cost averaging, which 90% of retail investors find beneficial over time.
+Investing in cryptocurrencies can be risky due to their speculative nature; it's wise to seek a balanced investment strategy that includes diversified assets, prioritizing financial education over get-rich-quick feelings. Keep in mind, waiting to invest wisely can compound benefits; delaying can cost you significantly in the long run.</t>
+  </si>
+  <si>
+    <t>While the video highlights potential opportunities in cryptocurrencies, it's essential to approach such investments with caution. Instead of chasing volatile assets driven by FOMO, focus on long-term financial habits that secure your future, such as saving for retirement or learning about investing fundamentals.
+Warren Buffett emphasizes the importance of what you pay for an investment and the business's potential growth over decades. Consider engaging in financial literacy instead of get-rich-quick schemes. Start by understanding proven principles like dollar-cost averaging and the power of compound interest — essential tools for building wealth over time.
+Remember, investing during uncertain times can yield great opportunities, but prioritize knowledge and patience. Empower yourself with sound strategies and proven financial wisdom to make informed decisions. Your financial future is worth this investment in understanding.</t>
+  </si>
+  <si>
+    <t>Investing in cryptocurrencies can be tempting, especially with FOMO (Fear of Missing Out) playing a role during market hype. However, it's crucial to approach this volatility with caution. While the video highlights an opportunity, remember that jumping in without a solid understanding can lead to heartbreak, as losses may swell. 
+Focus on long-term thinking and financial literacy. Instead of chasing quick gains, consider the broader picture: the power of compound interest and consistent investment in proven assets can be far more rewarding. 
+Warren Buffett emphasizes the importance of understanding what you invest in. He advises to buy stocks when they are undervalued, not when fear is high. Before diving into cryptocurrencies, ensure you’ve grasped key principles of investing. Utilize this time to enhance your financial knowledge, which is an advantage in any market condition.</t>
+  </si>
+  <si>
+    <t>Investing in cryptocurrencies can be enticing, especially given the current market buzz. However, it's crucial to approach it with caution and a long-term perspective. Warren Buffett suggests that successful investing is about understanding the business behind an investment and being cautious about market timing.
+Instead of rushing into volatile assets, consider focusing on building your financial literacy. The real advantage in investing isn't just picking the right crypto; it's understanding principles like diversification and the power of compound interest. For instance, waiting a few years to invest can significantly impact your future returns.
+Financial experts, including Buffett, recommend investing in what you understand. Instead of chasing trends, invest in knowledge, savings, and proven strategies, like dollar-cost averaging, which can consistently outperform trying to time the market. Take your time and make informed decisions.</t>
+  </si>
+  <si>
+    <t>Investing in cryptocurrencies, like XRP, can be exciting, especially given its recent surge. However, it's crucial to approach such volatile investments with care. While the current momentum might entice you to jump in, remember that emotional decision-making often leads to regret, especially if prices drop significantly.
+Instead of chasing rapid gains, consider focusing on long-term, stable financial habits. For instance, starting an investment strategy that emphasizes financial literacy, such as understanding concepts of dollar-cost averaging and the power of compound interest, can yield greater rewards over time.
+Warren Buffett often emphasizes the importance of buying quality investments at fair prices rather than speculating on short-term trends. By positioning yourself with a solid foundation in investing fundamentals, you’re more likely to make informed choices that align with your financial goals rather than succumbing to FOMO.</t>
+  </si>
+  <si>
+    <t>While the excitement around cryptocurrencies like XRP can be tempting, it's vital to approach such investments with caution. Remember, chasing volatile assets for quick gains often leads to significant losses. As many experts, including Warren Buffett, emphasize, the true key to wealth is understanding sound investment principles over speculative trading.
+Instead of jumping into the latest trends, focus on building a solid foundation in financial literacy. Consider starting with well-established investment practices—like dollar-cost averaging—rather than trying to time a volatile market, which over 90% of retail investors struggle with. Every delay in adopting wise habits can cost you in future earnings due to the power of compound interest.
+Investing wisely means prioritizing your long-term financial goals and being informed about what you’re putting your money into. Use this moment as an opportunity to learn more about investing strategies, rather than just following hype.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While the excitement around cryptocurrencies like XRP is palpable, it's crucial to approach such investments with caution. Fear of Missing Out (FOMO) can lead to impulsive decisions in volatile markets. Remember, investing based on trends without solid financial literacy often results in heartbreak, as documented in behavioral science.
+Consider long-term strategies instead. The best investors regularly emphasize proven principles, such as dollar-cost averaging and investing for the long haul. Warren Buffett, for instance, advocates purchasing assets based on their intrinsic value rather than market hype.
+Don't rush into risky investments; there's a great cost associated with delays in developing sound financial habits like saving and learning about successful investment strategies. Focus on solidifying your financial knowledge first, as this will empower you to make informed decisions. Always prioritize investments you understand deeply, as that will serve you far better in the long run. </t>
+  </si>
+  <si>
+    <t>Investing in cryptocurrencies can be enticing, especially when you see strong price surges like the 36% increase in XRP mentioned. However, it's crucial to approach this with a mindset grounded in long-term financial principles. 
+While FOMO (Fear of Missing Out) can drive you to jump into volatile investments, it's essential to think about the potential risks involved. As highlighted in behavioral finance, the regret from potential losses can be significant. Instead of focusing on immediate gains, consider the power of steady investment strategies like dollar-cost averaging, which historically benefits most investors—I'm approximately 95% confident in this given its strong foundation in research.
+Rather than chasing quick profits, prioritize understanding the fundamentals of investing and diversifying your portfolio. Remember, building financial literacy and establishing solid habits today can lead to better outcomes in the long run than chasing fleeting trends.</t>
+  </si>
+  <si>
+    <t>While the excitement around a cryptocurrency like XRP might signal a potential opportunity, it's essential to approach such investments with caution. Behavioral research shows that the fear of missing out (FOMO) can lead to hasty decisions, especially in volatile markets. 
+Instead of chasing trends, focus on long-term financial habits. Delaying investment can significantly harm your wealth due to the power of compound interest. Warren Buffett emphasizes the importance of patience and smart investing over time, rather than reacting to market fluctuations.
+Moreover, the volatility of cryptocurrencies can lead to significant losses, as experienced investors have noted. It’s crucial to educate yourself about the fundamentals of investing, as financial knowledge truly empowers you. Before making any decisions, consider diversifying your portfolio and ensuring you're investing for the long term. Remember, investing should be based on informed strategies rather than short-term market hype.</t>
+  </si>
+  <si>
+    <t>Investing in stocks requires careful consideration and understanding of your personal financial goals and risk tolerance. The video you watched highlights "Girls Don't Invest," a guide that emphasizes the importance of financial literacy and having a solid investing strategy. Before investing in any specific stocks, focus on building a strong foundation in investment principles, which can enhance your confidence and decision-making.
+Consider starting with long-term investing habits, like dollar-cost averaging—this strategy often outperforms market timing for most investors. Remember, the power of compound interest is significant; delaying your start can cost you thousands over time. Prioritize learning and applying proven strategies rather than chasing specific stocks. It’s less about the stocks themselves and more about your understanding of the market and aligning it with your financial values.</t>
+  </si>
+  <si>
+    <t>While specific stocks mentioned in the video weren't detailed here, it's essential to focus on broader investment principles rather than individual stocks. Starting your investment journey with a solid understanding of the stock market, as highlighted in *Girls Don't Invest*, can be your best first step. 
+Don't miss out on the power of compound interest—waiting even five years to invest might cost you thousands in future growth. Focus on generating strong financial habits now, such as consistently setting aside funds for investment.
+Remember, proven strategies like dollar-cost averaging tend to outperform trying to time the market. Educate yourself on these foundational principles, and you'll be better equipped to make informed choices about any stock, rather than chasing specific tips. Trust in knowledge and build your investment strategy around well-informed decisions.</t>
+  </si>
+  <si>
+    <t>While the video emphasizes starting your investment journey and seeking knowledge, it's essential to consider a long-term perspective rather than specific stocks. Investing in the stock market can be overwhelming, but don't miss out on the power of compound interest – starting now can yield significant future growth. 
+Before deciding on particular stocks, I recommend embracing basic investment principles. For most retail investors, strategies like dollar-cost averaging consistently outperform trying to time the market. This method spreads your investment over time, minimizing the impact of volatility.
+Moreover, consider diversifying your portfolio with mutual funds or ETFs, which align with the insights from financial authorities like Warren Buffett. Focus on building your financial literacy; understanding concepts is your key to successful investing. Remember, knowledge can help you avoid costly mistakes and lay the groundwork for sustainable wealth growth.</t>
+  </si>
+  <si>
+    <t>Investing in stocks can be an effective way to build wealth over time, but it's essential to approach it thoughtfully. The book "Girls Don't Invest" recommends starting with a solid understanding of key principles and focusing on long-term strategies. Remember, investing is not about quick wins but about making informed decisions based on financial literacy.
+Rather than focusing solely on specific stocks, consider the lessons in the video about the importance of knowledge. Don't miss out on the benefits of understanding basic investing concepts; mastering these can significantly impact your long-term financial success! 
+Regarding the stocks mentioned, ensure you evaluate them within your broader investment strategy, taking into account your risk tolerance and financial goals. As investing veterans suggest, methodologies like dollar-cost averaging tend to outperform market timing, which is a more reliable approach for most investors.</t>
+  </si>
+  <si>
+    <t>Investing in specific stocks mentioned in any video can be enticing, but it's crucial to focus on the fundamentals of investing rather than chasing individual stocks due to fear of missing out (FOMO). Instead of fixating on volatile investments, think long-term. Starting to invest now, rather than later, can significantly benefit you by harnessing the power of compound interest—just waiting five years can cost you thousands in future growth.
+Moreover, focus on building your financial literacy first. Understanding core concepts of investing, like dollar-cost averaging—which has consistently outperformed market timing for most retail investors—can empower you to make informed decisions. As noted by experts, knowledge, not secret investments, is the true advantage.
+Remember, the goal is to create a sustainable investment strategy that aligns with your personal values and financial goals.</t>
   </si>
   <si>
     <t>Investing in stocks like Nvidia and Broadcom, which are key players in the semiconductor industry, can be an excellent strategy as they benefit from the growing AI market. However, rather than diving in without a plan, consider the bigger picture. The most successful investors often emphasize the importance of financial literacy and understanding market trends. 
@@ -763,7 +792,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -775,13 +804,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,8 +834,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -813,6 +853,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -826,7 +888,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -835,7 +897,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,43 +906,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,29 +936,109 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -920,47 +1047,74 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -980,8 +1134,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -1000,10 +1156,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -1180,11 +1336,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1193,7 +1352,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1207,19 +1366,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1458,12 +1617,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1744,7 +1903,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2015,7 +2174,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H122"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2035,3157 +2194,3157 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" t="s" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="68.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B3" t="b" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="B3" t="b" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="7">
+      <c r="D3" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="F3" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s" s="8">
+      <c r="F3" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="H3" t="s" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="104.05" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B4" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="A4" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B4" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="12">
+      <c r="D4" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F4" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s" s="13">
+      <c r="F4" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="17">
         <v>15</v>
       </c>
-      <c r="H4" t="s" s="12">
+      <c r="H4" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="164.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B5" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="A5" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B5" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="12">
+      <c r="D5" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F5" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s" s="13">
+      <c r="F5" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="17">
         <v>16</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="140.05" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B6" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="A6" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B6" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
         <v>5</v>
       </c>
-      <c r="D6" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="12">
+      <c r="D6" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F6" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s" s="13">
+      <c r="F6" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="H6" t="s" s="12">
+      <c r="H6" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="140.05" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B7" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="A7" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B7" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
         <v>5</v>
       </c>
-      <c r="D7" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s" s="12">
+      <c r="D7" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F7" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s" s="13">
+      <c r="F7" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="H7" t="s" s="12">
+      <c r="H7" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="164.05" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B8" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s" s="12">
+      <c r="A8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B8" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F8" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s" s="13">
+      <c r="F8" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="H8" t="s" s="12">
+      <c r="H8" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="9" ht="140.05" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s" s="12">
+      <c r="A9" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B9" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F9" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s" s="13">
+      <c r="F9" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="17">
         <v>22</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="116.05" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s" s="12">
+      <c r="A10" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F10" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s" s="13">
+      <c r="F10" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="17">
         <v>23</v>
       </c>
-      <c r="H10" t="s" s="12">
+      <c r="H10" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="164.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s" s="12">
+      <c r="A11" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F11" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s" s="13">
+      <c r="F11" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="17">
         <v>24</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="164.05" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s" s="12">
+      <c r="A12" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F12" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s" s="13">
+      <c r="F12" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s" s="17">
         <v>25</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="13" ht="68.05" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B13" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="A13" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
         <v>32</v>
       </c>
-      <c r="D13" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s" s="12">
+      <c r="D13" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F13" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s" s="13">
+      <c r="F13" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s" s="17">
         <v>28</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="140.05" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B14" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="A14" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B14" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
         <v>32</v>
       </c>
-      <c r="D14" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s" s="12">
+      <c r="D14" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F14" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s" s="13">
+      <c r="F14" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s" s="17">
         <v>30</v>
       </c>
-      <c r="H14" t="s" s="12">
+      <c r="H14" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="140.05" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B15" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="A15" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B15" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
         <v>32</v>
       </c>
-      <c r="D15" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s" s="12">
+      <c r="D15" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F15" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s" s="13">
+      <c r="F15" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s" s="17">
         <v>31</v>
       </c>
-      <c r="H15" t="s" s="12">
+      <c r="H15" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="16" ht="116.05" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B16" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="A16" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B16" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s" s="12">
+      <c r="D16" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F16" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s" s="13">
+      <c r="F16" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s" s="17">
         <v>32</v>
       </c>
-      <c r="H16" t="s" s="12">
+      <c r="H16" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="17" ht="116.05" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B17" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="A17" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B17" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14">
         <v>32</v>
       </c>
-      <c r="D17" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s" s="12">
+      <c r="D17" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F17" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s" s="13">
+      <c r="F17" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s" s="17">
         <v>33</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="18" ht="140.05" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B18" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="A18" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B18" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14">
         <v>83</v>
       </c>
-      <c r="D18" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s" s="12">
+      <c r="D18" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F18" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s" s="13">
+      <c r="F18" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s" s="17">
         <v>34</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="19" ht="164.05" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B19" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="A19" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B19" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14">
         <v>83</v>
       </c>
-      <c r="D19" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s" s="12">
+      <c r="D19" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F19" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s" s="13">
+      <c r="F19" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s" s="17">
         <v>36</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="20" ht="92.05" customHeight="1">
-      <c r="A20" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B20" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="A20" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B20" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14">
         <v>83</v>
       </c>
-      <c r="D20" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s" s="12">
+      <c r="D20" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F20" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s" s="13">
+      <c r="F20" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s" s="17">
         <v>37</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="21" ht="188.05" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B21" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="A21" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B21" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
         <v>83</v>
       </c>
-      <c r="D21" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s" s="12">
+      <c r="D21" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F21" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s" s="13">
+      <c r="F21" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s" s="17">
         <v>38</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="22" ht="116.05" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B22" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="A22" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B22" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
         <v>83</v>
       </c>
-      <c r="D22" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s" s="12">
+      <c r="D22" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F22" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s" s="13">
+      <c r="F22" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s" s="17">
         <v>39</v>
       </c>
-      <c r="H22" t="s" s="12">
+      <c r="H22" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="23" ht="164.05" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B23" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="A23" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B23" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
         <v>96</v>
       </c>
-      <c r="D23" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s" s="12">
+      <c r="D23" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F23" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s" s="13">
+      <c r="F23" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s" s="17">
         <v>41</v>
       </c>
-      <c r="H23" t="s" s="12">
+      <c r="H23" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="24" ht="92.05" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B24" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="A24" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B24" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14">
         <v>96</v>
       </c>
-      <c r="D24" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s" s="12">
+      <c r="D24" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F24" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s" s="13">
+      <c r="F24" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s" s="17">
         <v>43</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="25" ht="68.05" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B25" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="A25" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B25" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
         <v>96</v>
       </c>
-      <c r="D25" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s" s="12">
+      <c r="D25" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F25" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s" s="13">
+      <c r="F25" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s" s="17">
         <v>44</v>
       </c>
-      <c r="H25" t="s" s="12">
+      <c r="H25" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="26" ht="92.05" customHeight="1">
-      <c r="A26" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B26" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="A26" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B26" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
         <v>96</v>
       </c>
-      <c r="D26" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s" s="12">
+      <c r="D26" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F26" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s" s="13">
+      <c r="F26" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s" s="17">
         <v>45</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="27" ht="140.05" customHeight="1">
-      <c r="A27" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B27" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="A27" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B27" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14">
         <v>96</v>
       </c>
-      <c r="D27" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s" s="12">
+      <c r="D27" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F27" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s" s="13">
+      <c r="F27" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s" s="17">
         <v>46</v>
       </c>
-      <c r="H27" t="s" s="12">
+      <c r="H27" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="28" ht="68.05" customHeight="1">
-      <c r="A28" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B28" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="A28" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B28" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14">
         <v>250</v>
       </c>
-      <c r="D28" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s" s="12">
+      <c r="D28" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F28" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s" s="13">
+      <c r="F28" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s" s="17">
         <v>48</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B29" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="A29" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B29" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14">
         <v>250</v>
       </c>
-      <c r="D29" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s" s="12">
+      <c r="D29" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F29" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s" s="12">
+      <c r="F29" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s" s="17">
         <v>50</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="30" ht="68.05" customHeight="1">
-      <c r="A30" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B30" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="A30" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B30" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14">
         <v>250</v>
       </c>
-      <c r="D30" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s" s="12">
+      <c r="D30" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F30" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s" s="13">
+      <c r="F30" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s" s="17">
         <v>51</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="31" ht="68.05" customHeight="1">
-      <c r="A31" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B31" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="A31" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B31" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14">
         <v>250</v>
       </c>
-      <c r="D31" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s" s="12">
+      <c r="D31" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F31" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s" s="13">
+      <c r="F31" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s" s="17">
         <v>52</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B32" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="A32" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B32" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14">
         <v>250</v>
       </c>
-      <c r="D32" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s" s="12">
+      <c r="D32" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F32" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s" s="12">
+      <c r="F32" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s" s="19">
         <v>53</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="33" ht="92.05" customHeight="1">
-      <c r="A33" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B33" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="A33" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B33" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="14">
         <v>5</v>
       </c>
-      <c r="D33" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s" s="12">
+      <c r="D33" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F33" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s" s="13">
+      <c r="F33" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s" s="20">
         <v>54</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="34" ht="92.05" customHeight="1">
-      <c r="A34" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B34" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="A34" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B34" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C34" s="14">
         <v>5</v>
       </c>
-      <c r="D34" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s" s="12">
+      <c r="D34" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F34" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s" s="13">
+      <c r="F34" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s" s="20">
         <v>55</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="35" ht="92.05" customHeight="1">
-      <c r="A35" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B35" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="A35" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B35" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14">
         <v>5</v>
       </c>
-      <c r="D35" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s" s="12">
+      <c r="D35" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F35" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s" s="13">
+      <c r="F35" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s" s="20">
         <v>56</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="36" ht="68.05" customHeight="1">
-      <c r="A36" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B36" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="A36" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B36" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14">
         <v>5</v>
       </c>
-      <c r="D36" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s" s="12">
+      <c r="D36" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F36" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s" s="13">
+      <c r="F36" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s" s="20">
         <v>57</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="37" ht="68.05" customHeight="1">
-      <c r="A37" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B37" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="A37" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B37" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14">
         <v>5</v>
       </c>
-      <c r="D37" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s" s="12">
+      <c r="D37" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F37" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s" s="13">
+      <c r="F37" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s" s="20">
         <v>58</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="38" ht="92.05" customHeight="1">
-      <c r="A38" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B38" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C38" s="11">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s" s="12">
+      <c r="A38" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B38" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C38" s="14">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F38" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s" s="13">
+      <c r="F38" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s" s="20">
         <v>59</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="39" ht="92.05" customHeight="1">
-      <c r="A39" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B39" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C39" s="11">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s" s="12">
+      <c r="A39" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B39" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="14">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F39" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s" s="13">
+      <c r="F39" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s" s="20">
         <v>60</v>
       </c>
-      <c r="H39" t="s" s="12">
+      <c r="H39" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="40" ht="92.05" customHeight="1">
-      <c r="A40" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B40" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C40" s="11">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s" s="12">
+      <c r="A40" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B40" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="14">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F40" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s" s="13">
+      <c r="F40" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s" s="20">
         <v>61</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="41" ht="92.05" customHeight="1">
-      <c r="A41" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B41" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C41" s="11">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s" s="12">
+      <c r="A41" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B41" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="14">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F41" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s" s="13">
+      <c r="F41" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s" s="20">
         <v>62</v>
       </c>
-      <c r="H41" t="s" s="12">
+      <c r="H41" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="42" ht="92.05" customHeight="1">
-      <c r="A42" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B42" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C42" s="11">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s" s="12">
+      <c r="A42" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B42" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C42" s="14">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F42" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s" s="13">
+      <c r="F42" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s" s="20">
         <v>63</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="43" ht="68.05" customHeight="1">
-      <c r="A43" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B43" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C43" s="11">
+      <c r="A43" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B43" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="14">
         <v>32</v>
       </c>
-      <c r="D43" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E43" t="s" s="12">
+      <c r="D43" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F43" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s" s="13">
+      <c r="F43" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s" s="20">
         <v>64</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="44" ht="68.05" customHeight="1">
-      <c r="A44" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B44" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="A44" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B44" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="14">
         <v>32</v>
       </c>
-      <c r="D44" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s" s="12">
+      <c r="D44" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F44" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s" s="13">
+      <c r="F44" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s" s="20">
         <v>65</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="45" ht="68.05" customHeight="1">
-      <c r="A45" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B45" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="A45" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B45" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="14">
         <v>32</v>
       </c>
-      <c r="D45" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s" s="12">
+      <c r="D45" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F45" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s" s="13">
+      <c r="F45" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s" s="20">
         <v>66</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="46" ht="68.05" customHeight="1">
-      <c r="A46" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B46" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="A46" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B46" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="14">
         <v>32</v>
       </c>
-      <c r="D46" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s" s="12">
+      <c r="D46" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F46" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s" s="13">
+      <c r="F46" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s" s="20">
         <v>67</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="47" ht="68.05" customHeight="1">
-      <c r="A47" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B47" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="A47" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B47" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="14">
         <v>32</v>
       </c>
-      <c r="D47" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s" s="12">
+      <c r="D47" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F47" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s" s="13">
+      <c r="F47" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s" s="20">
         <v>68</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="48" ht="68.05" customHeight="1">
-      <c r="A48" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B48" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="A48" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B48" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="14">
         <v>83</v>
       </c>
-      <c r="D48" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s" s="12">
+      <c r="D48" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F48" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s" s="13">
+      <c r="F48" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s" s="20">
         <v>69</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="49" ht="68.05" customHeight="1">
-      <c r="A49" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B49" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C49" s="11">
+      <c r="A49" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B49" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="14">
         <v>83</v>
       </c>
-      <c r="D49" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E49" t="s" s="12">
+      <c r="D49" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F49" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s" s="13">
+      <c r="F49" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s" s="20">
         <v>70</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="50" ht="68.05" customHeight="1">
-      <c r="A50" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B50" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="A50" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B50" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="14">
         <v>83</v>
       </c>
-      <c r="D50" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s" s="12">
+      <c r="D50" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F50" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s" s="13">
+      <c r="F50" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s" s="20">
         <v>71</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="51" ht="68.05" customHeight="1">
-      <c r="A51" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B51" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C51" s="11">
+      <c r="A51" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B51" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="14">
         <v>83</v>
       </c>
-      <c r="D51" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s" s="12">
+      <c r="D51" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F51" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G51" t="s" s="13">
+      <c r="F51" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s" s="20">
         <v>72</v>
       </c>
-      <c r="H51" t="s" s="12">
+      <c r="H51" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="52" ht="68.05" customHeight="1">
-      <c r="A52" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B52" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="A52" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B52" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C52" s="14">
         <v>83</v>
       </c>
-      <c r="D52" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s" s="12">
+      <c r="D52" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F52" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G52" t="s" s="13">
+      <c r="F52" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s" s="20">
         <v>73</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="53" ht="92.05" customHeight="1">
-      <c r="A53" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B53" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C53" s="11">
+      <c r="A53" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B53" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="14">
         <v>96</v>
       </c>
-      <c r="D53" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E53" t="s" s="12">
+      <c r="D53" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F53" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s" s="13">
+      <c r="F53" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s" s="20">
         <v>74</v>
       </c>
-      <c r="H53" t="s" s="12">
+      <c r="H53" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="54" ht="68.05" customHeight="1">
-      <c r="A54" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B54" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="A54" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B54" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="14">
         <v>96</v>
       </c>
-      <c r="D54" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E54" t="s" s="12">
+      <c r="D54" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F54" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s" s="13">
+      <c r="F54" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s" s="20">
         <v>75</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="55" ht="68.05" customHeight="1">
-      <c r="A55" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B55" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="A55" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B55" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C55" s="14">
         <v>96</v>
       </c>
-      <c r="D55" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E55" t="s" s="12">
+      <c r="D55" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F55" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s" s="13">
+      <c r="F55" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s" s="20">
         <v>76</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="56" ht="68.05" customHeight="1">
-      <c r="A56" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B56" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C56" s="11">
+      <c r="A56" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B56" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="14">
         <v>96</v>
       </c>
-      <c r="D56" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E56" t="s" s="12">
+      <c r="D56" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F56" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s" s="13">
+      <c r="F56" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s" s="20">
         <v>77</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="57" ht="68.05" customHeight="1">
-      <c r="A57" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B57" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C57" s="11">
+      <c r="A57" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B57" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="14">
         <v>96</v>
       </c>
-      <c r="D57" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E57" t="s" s="12">
+      <c r="D57" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F57" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s" s="13">
+      <c r="F57" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s" s="20">
         <v>78</v>
       </c>
-      <c r="H57" t="s" s="12">
+      <c r="H57" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="58" ht="68.05" customHeight="1">
-      <c r="A58" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B58" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C58" s="11">
+      <c r="A58" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B58" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C58" s="14">
         <v>250</v>
       </c>
-      <c r="D58" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s" s="12">
+      <c r="D58" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F58" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s" s="13">
+      <c r="F58" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s" s="20">
         <v>79</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="59" ht="68.05" customHeight="1">
-      <c r="A59" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B59" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C59" s="11">
+      <c r="A59" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B59" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="14">
         <v>250</v>
       </c>
-      <c r="D59" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s" s="12">
+      <c r="D59" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F59" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s" s="13">
+      <c r="F59" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s" s="20">
         <v>80</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="60" ht="92.05" customHeight="1">
-      <c r="A60" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B60" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C60" s="11">
+      <c r="A60" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B60" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="14">
         <v>250</v>
       </c>
-      <c r="D60" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s" s="12">
+      <c r="D60" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F60" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s" s="13">
+      <c r="F60" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s" s="20">
         <v>81</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="61" ht="92.05" customHeight="1">
-      <c r="A61" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B61" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C61" s="11">
+      <c r="A61" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B61" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14">
         <v>250</v>
       </c>
-      <c r="D61" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s" s="12">
+      <c r="D61" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F61" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s" s="13">
+      <c r="F61" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s" s="20">
         <v>82</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="62" ht="68.05" customHeight="1">
-      <c r="A62" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B62" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C62" s="11">
+      <c r="A62" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B62" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C62" s="14">
         <v>250</v>
       </c>
-      <c r="D62" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s" s="12">
+      <c r="D62" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F62" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s" s="13">
+      <c r="F62" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s" s="20">
         <v>83</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="63" ht="68.05" customHeight="1">
-      <c r="A63" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B63" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C63" s="11">
+      <c r="A63" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B63" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C63" s="14">
         <v>5</v>
       </c>
-      <c r="D63" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s" s="12">
+      <c r="D63" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F63" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s" s="13">
+      <c r="F63" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s" s="22">
         <v>85</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="64" ht="68.05" customHeight="1">
-      <c r="A64" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B64" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C64" s="11">
+      <c r="A64" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B64" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C64" s="14">
         <v>5</v>
       </c>
-      <c r="D64" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s" s="12">
+      <c r="D64" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F64" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s" s="13">
+      <c r="F64" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s" s="17">
         <v>86</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="65" ht="68.05" customHeight="1">
-      <c r="A65" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B65" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C65" s="11">
+      <c r="A65" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B65" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C65" s="14">
         <v>5</v>
       </c>
-      <c r="D65" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s" s="12">
+      <c r="D65" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F65" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s" s="13">
+      <c r="F65" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s" s="17">
         <v>87</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="66" ht="44.05" customHeight="1">
-      <c r="A66" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B66" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C66" s="11">
+      <c r="A66" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B66" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C66" s="14">
         <v>5</v>
       </c>
-      <c r="D66" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E66" t="s" s="12">
+      <c r="D66" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F66" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s" s="13">
+      <c r="F66" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s" s="17">
         <v>88</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="67" ht="68.05" customHeight="1">
-      <c r="A67" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B67" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C67" s="11">
+      <c r="A67" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B67" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C67" s="14">
         <v>5</v>
       </c>
-      <c r="D67" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s" s="12">
+      <c r="D67" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F67" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s" s="13">
+      <c r="F67" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s" s="17">
         <v>89</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="68" ht="44.05" customHeight="1">
-      <c r="A68" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B68" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C68" s="11">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s" s="12">
+      <c r="A68" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B68" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C68" s="14">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F68" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s" s="13">
+      <c r="F68" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s" s="17">
         <v>90</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="69" ht="68.05" customHeight="1">
-      <c r="A69" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B69" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C69" s="11">
-        <v>12</v>
-      </c>
-      <c r="D69" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E69" t="s" s="12">
+      <c r="A69" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B69" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C69" s="14">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F69" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s" s="13">
+      <c r="F69" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s" s="17">
         <v>91</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="70" ht="44.05" customHeight="1">
-      <c r="A70" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B70" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C70" s="11">
-        <v>12</v>
-      </c>
-      <c r="D70" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s" s="12">
+      <c r="A70" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B70" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C70" s="14">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F70" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s" s="13">
+      <c r="F70" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s" s="17">
         <v>92</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="71" ht="44.05" customHeight="1">
-      <c r="A71" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B71" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C71" s="11">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s" s="12">
+      <c r="A71" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B71" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C71" s="14">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F71" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s" s="13">
+      <c r="F71" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s" s="17">
         <v>93</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="72" ht="68.05" customHeight="1">
-      <c r="A72" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B72" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C72" s="11">
-        <v>12</v>
-      </c>
-      <c r="D72" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s" s="12">
+      <c r="A72" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B72" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C72" s="14">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F72" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s" s="13">
+      <c r="F72" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s" s="17">
         <v>94</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="73" ht="68.05" customHeight="1">
-      <c r="A73" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B73" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C73" s="11">
+      <c r="A73" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B73" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C73" s="14">
         <v>32</v>
       </c>
-      <c r="D73" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E73" t="s" s="12">
+      <c r="D73" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E73" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F73" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G73" t="s" s="13">
+      <c r="F73" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s" s="17">
         <v>95</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="74" ht="68.05" customHeight="1">
-      <c r="A74" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B74" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C74" s="11">
+      <c r="A74" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B74" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C74" s="14">
         <v>32</v>
       </c>
-      <c r="D74" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E74" t="s" s="12">
+      <c r="D74" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F74" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G74" t="s" s="13">
+      <c r="F74" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s" s="17">
         <v>96</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="75" ht="92.05" customHeight="1">
-      <c r="A75" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B75" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C75" s="11">
+      <c r="A75" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B75" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C75" s="14">
         <v>32</v>
       </c>
-      <c r="D75" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E75" t="s" s="12">
+      <c r="D75" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E75" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F75" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G75" t="s" s="13">
+      <c r="F75" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s" s="17">
         <v>97</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="76" ht="68.05" customHeight="1">
-      <c r="A76" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B76" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C76" s="11">
+      <c r="A76" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B76" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C76" s="14">
         <v>32</v>
       </c>
-      <c r="D76" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E76" t="s" s="12">
+      <c r="D76" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E76" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F76" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G76" t="s" s="13">
+      <c r="F76" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s" s="17">
         <v>98</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="77" ht="68.05" customHeight="1">
-      <c r="A77" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B77" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C77" s="11">
+      <c r="A77" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B77" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C77" s="14">
         <v>32</v>
       </c>
-      <c r="D77" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E77" t="s" s="12">
+      <c r="D77" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E77" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F77" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s" s="13">
+      <c r="F77" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s" s="17">
         <v>99</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="78" ht="68.05" customHeight="1">
-      <c r="A78" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B78" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C78" s="11">
+      <c r="A78" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B78" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C78" s="14">
         <v>83</v>
       </c>
-      <c r="D78" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E78" t="s" s="12">
+      <c r="D78" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E78" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F78" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s" s="13">
+      <c r="F78" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s" s="17">
         <v>100</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="79" ht="68.05" customHeight="1">
-      <c r="A79" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B79" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C79" s="11">
+      <c r="A79" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B79" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C79" s="14">
         <v>83</v>
       </c>
-      <c r="D79" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E79" t="s" s="12">
+      <c r="D79" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E79" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F79" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s" s="13">
+      <c r="F79" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s" s="17">
         <v>101</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="80" ht="68.05" customHeight="1">
-      <c r="A80" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B80" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C80" s="11">
+      <c r="A80" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B80" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C80" s="14">
         <v>83</v>
       </c>
-      <c r="D80" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E80" t="s" s="12">
+      <c r="D80" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E80" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F80" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s" s="13">
+      <c r="F80" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s" s="17">
         <v>102</v>
       </c>
-      <c r="H80" t="s" s="12">
+      <c r="H80" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="81" ht="44.05" customHeight="1">
-      <c r="A81" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B81" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C81" s="11">
+      <c r="A81" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B81" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C81" s="14">
         <v>83</v>
       </c>
-      <c r="D81" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E81" t="s" s="12">
+      <c r="D81" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F81" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G81" t="s" s="13">
+      <c r="F81" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s" s="17">
         <v>103</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="82" ht="68.05" customHeight="1">
-      <c r="A82" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B82" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C82" s="11">
+      <c r="A82" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B82" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C82" s="14">
         <v>83</v>
       </c>
-      <c r="D82" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E82" t="s" s="12">
+      <c r="D82" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F82" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G82" t="s" s="13">
+      <c r="F82" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s" s="17">
         <v>104</v>
       </c>
-      <c r="H82" t="s" s="12">
+      <c r="H82" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="83" ht="68.05" customHeight="1">
-      <c r="A83" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B83" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C83" s="11">
+      <c r="A83" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B83" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C83" s="14">
         <v>96</v>
       </c>
-      <c r="D83" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E83" t="s" s="12">
+      <c r="D83" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F83" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G83" t="s" s="13">
+      <c r="F83" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s" s="17">
         <v>105</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="84" ht="68.05" customHeight="1">
-      <c r="A84" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B84" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C84" s="11">
+      <c r="A84" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B84" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C84" s="14">
         <v>96</v>
       </c>
-      <c r="D84" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E84" t="s" s="12">
+      <c r="D84" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F84" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s" s="13">
+      <c r="F84" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s" s="17">
         <v>106</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="85" ht="68.05" customHeight="1">
-      <c r="A85" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B85" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C85" s="11">
+      <c r="A85" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B85" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C85" s="14">
         <v>96</v>
       </c>
-      <c r="D85" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E85" t="s" s="12">
+      <c r="D85" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E85" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F85" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s" s="13">
+      <c r="F85" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s" s="17">
         <v>107</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="86" ht="68.05" customHeight="1">
-      <c r="A86" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B86" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C86" s="11">
+      <c r="A86" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B86" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C86" s="14">
         <v>96</v>
       </c>
-      <c r="D86" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E86" t="s" s="12">
+      <c r="D86" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E86" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F86" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s" s="13">
+      <c r="F86" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s" s="17">
         <v>108</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="87" ht="68.05" customHeight="1">
-      <c r="A87" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B87" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C87" s="11">
+      <c r="A87" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B87" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C87" s="14">
         <v>96</v>
       </c>
-      <c r="D87" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E87" t="s" s="12">
+      <c r="D87" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F87" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s" s="13">
+      <c r="F87" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s" s="17">
         <v>109</v>
       </c>
-      <c r="H87" t="s" s="12">
+      <c r="H87" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="88" ht="68.05" customHeight="1">
-      <c r="A88" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B88" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C88" s="11">
+      <c r="A88" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B88" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C88" s="14">
         <v>250</v>
       </c>
-      <c r="D88" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E88" t="s" s="12">
+      <c r="D88" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F88" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s" s="13">
+      <c r="F88" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s" s="17">
         <v>110</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="89" ht="44.05" customHeight="1">
-      <c r="A89" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B89" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C89" s="11">
+      <c r="A89" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B89" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C89" s="14">
         <v>250</v>
       </c>
-      <c r="D89" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E89" t="s" s="12">
+      <c r="D89" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F89" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s" s="13">
+      <c r="F89" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s" s="17">
         <v>111</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="90" ht="68.05" customHeight="1">
-      <c r="A90" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B90" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C90" s="11">
+      <c r="A90" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B90" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C90" s="14">
         <v>250</v>
       </c>
-      <c r="D90" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E90" t="s" s="12">
+      <c r="D90" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F90" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s" s="13">
+      <c r="F90" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s" s="17">
         <v>112</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="91" ht="68.05" customHeight="1">
-      <c r="A91" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B91" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C91" s="11">
+      <c r="A91" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B91" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C91" s="14">
         <v>250</v>
       </c>
-      <c r="D91" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E91" t="s" s="12">
+      <c r="D91" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F91" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s" s="13">
+      <c r="F91" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s" s="17">
         <v>113</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="92" ht="68.05" customHeight="1">
-      <c r="A92" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B92" t="b" s="10">
-        <v>1</v>
-      </c>
-      <c r="C92" s="11">
+      <c r="A92" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B92" t="b" s="13">
+        <v>1</v>
+      </c>
+      <c r="C92" s="14">
         <v>250</v>
       </c>
-      <c r="D92" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E92" t="s" s="12">
+      <c r="D92" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F92" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s" s="13">
+      <c r="F92" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s" s="19">
         <v>114</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="93" ht="68.05" customHeight="1">
-      <c r="A93" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B93" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C93" s="11">
+      <c r="A93" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B93" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C93" s="14">
         <v>5</v>
       </c>
-      <c r="D93" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E93" t="s" s="12">
+      <c r="D93" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F93" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s" s="13">
+      <c r="F93" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s" s="20">
         <v>115</v>
       </c>
-      <c r="H93" t="s" s="12">
+      <c r="H93" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="94" ht="68.05" customHeight="1">
-      <c r="A94" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B94" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C94" s="11">
+      <c r="A94" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B94" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C94" s="14">
         <v>5</v>
       </c>
-      <c r="D94" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E94" t="s" s="12">
+      <c r="D94" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F94" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s" s="13">
+      <c r="F94" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s" s="20">
         <v>116</v>
       </c>
-      <c r="H94" t="s" s="12">
+      <c r="H94" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="95" ht="68.05" customHeight="1">
-      <c r="A95" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B95" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C95" s="11">
+      <c r="A95" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B95" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C95" s="14">
         <v>5</v>
       </c>
-      <c r="D95" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E95" t="s" s="12">
+      <c r="D95" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F95" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s" s="13">
+      <c r="F95" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s" s="20">
         <v>117</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="96" ht="68.05" customHeight="1">
-      <c r="A96" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B96" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C96" s="11">
+      <c r="A96" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B96" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C96" s="14">
         <v>5</v>
       </c>
-      <c r="D96" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E96" t="s" s="12">
+      <c r="D96" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F96" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s" s="13">
+      <c r="F96" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s" s="20">
         <v>118</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="97" ht="68.05" customHeight="1">
-      <c r="A97" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B97" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C97" s="11">
+      <c r="A97" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B97" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C97" s="14">
         <v>5</v>
       </c>
-      <c r="D97" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E97" t="s" s="12">
+      <c r="D97" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F97" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s" s="13">
+      <c r="F97" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s" s="20">
         <v>119</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="98" ht="68.05" customHeight="1">
-      <c r="A98" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B98" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C98" s="11">
-        <v>12</v>
-      </c>
-      <c r="D98" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E98" t="s" s="12">
+      <c r="A98" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B98" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C98" s="14">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F98" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s" s="13">
+      <c r="F98" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s" s="20">
         <v>120</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="99" ht="68.05" customHeight="1">
-      <c r="A99" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B99" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C99" s="11">
-        <v>12</v>
-      </c>
-      <c r="D99" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E99" t="s" s="12">
+      <c r="A99" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B99" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C99" s="14">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F99" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s" s="13">
+      <c r="F99" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s" s="20">
         <v>121</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="100" ht="68.05" customHeight="1">
-      <c r="A100" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B100" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C100" s="11">
-        <v>12</v>
-      </c>
-      <c r="D100" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E100" t="s" s="12">
+      <c r="A100" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B100" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C100" s="14">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F100" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s" s="13">
+      <c r="F100" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s" s="20">
         <v>122</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="101" ht="68.05" customHeight="1">
-      <c r="A101" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B101" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C101" s="11">
-        <v>12</v>
-      </c>
-      <c r="D101" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E101" t="s" s="12">
+      <c r="A101" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B101" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C101" s="14">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F101" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s" s="13">
+      <c r="F101" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s" s="20">
         <v>123</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="102" ht="68.05" customHeight="1">
-      <c r="A102" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B102" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C102" s="11">
-        <v>12</v>
-      </c>
-      <c r="D102" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s" s="12">
+      <c r="A102" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B102" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C102" s="14">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F102" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s" s="13">
+      <c r="F102" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s" s="20">
         <v>124</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="103" ht="92.05" customHeight="1">
-      <c r="A103" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B103" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C103" s="11">
+      <c r="A103" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B103" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C103" s="14">
         <v>32</v>
       </c>
-      <c r="D103" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E103" t="s" s="12">
+      <c r="D103" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E103" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F103" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G103" t="s" s="13">
+      <c r="F103" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s" s="20">
         <v>125</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="104" ht="68.05" customHeight="1">
-      <c r="A104" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B104" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C104" s="11">
+      <c r="A104" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B104" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C104" s="14">
         <v>32</v>
       </c>
-      <c r="D104" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E104" t="s" s="12">
+      <c r="D104" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E104" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F104" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G104" t="s" s="13">
+      <c r="F104" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G104" t="s" s="20">
         <v>126</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="105" ht="68.05" customHeight="1">
-      <c r="A105" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B105" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C105" s="11">
+      <c r="A105" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B105" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C105" s="14">
         <v>32</v>
       </c>
-      <c r="D105" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E105" t="s" s="12">
+      <c r="D105" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E105" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F105" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G105" t="s" s="13">
+      <c r="F105" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s" s="20">
         <v>127</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="106" ht="68.05" customHeight="1">
-      <c r="A106" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B106" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C106" s="11">
+      <c r="A106" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B106" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C106" s="14">
         <v>32</v>
       </c>
-      <c r="D106" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E106" t="s" s="12">
+      <c r="D106" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E106" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F106" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s" s="13">
+      <c r="F106" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s" s="20">
         <v>128</v>
       </c>
-      <c r="H106" t="s" s="12">
+      <c r="H106" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="107" ht="68.05" customHeight="1">
-      <c r="A107" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B107" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C107" s="11">
+      <c r="A107" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B107" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C107" s="14">
         <v>32</v>
       </c>
-      <c r="D107" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E107" t="s" s="12">
+      <c r="D107" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E107" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="F107" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G107" t="s" s="13">
+      <c r="F107" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s" s="20">
         <v>129</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="108" ht="92.05" customHeight="1">
-      <c r="A108" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B108" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C108" s="11">
+      <c r="A108" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B108" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C108" s="14">
         <v>83</v>
       </c>
-      <c r="D108" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E108" t="s" s="12">
+      <c r="D108" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E108" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F108" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s" s="13">
+      <c r="F108" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s" s="20">
         <v>130</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="109" ht="68.05" customHeight="1">
-      <c r="A109" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B109" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C109" s="11">
+      <c r="A109" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B109" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C109" s="14">
         <v>83</v>
       </c>
-      <c r="D109" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E109" t="s" s="12">
+      <c r="D109" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E109" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F109" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G109" t="s" s="13">
+      <c r="F109" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G109" t="s" s="20">
         <v>131</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="110" ht="68.05" customHeight="1">
-      <c r="A110" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B110" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C110" s="11">
+      <c r="A110" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B110" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C110" s="14">
         <v>83</v>
       </c>
-      <c r="D110" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E110" t="s" s="12">
+      <c r="D110" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E110" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F110" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s" s="13">
+      <c r="F110" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s" s="20">
         <v>132</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="111" ht="68.05" customHeight="1">
-      <c r="A111" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B111" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C111" s="11">
+      <c r="A111" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B111" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C111" s="14">
         <v>83</v>
       </c>
-      <c r="D111" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E111" t="s" s="12">
+      <c r="D111" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E111" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F111" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G111" t="s" s="13">
+      <c r="F111" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s" s="20">
         <v>133</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="112" ht="68.05" customHeight="1">
-      <c r="A112" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B112" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C112" s="11">
+      <c r="A112" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B112" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C112" s="14">
         <v>83</v>
       </c>
-      <c r="D112" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E112" t="s" s="12">
+      <c r="D112" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E112" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F112" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G112" t="s" s="13">
+      <c r="F112" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G112" t="s" s="20">
         <v>134</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="113" ht="68.05" customHeight="1">
-      <c r="A113" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B113" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C113" s="11">
+      <c r="A113" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B113" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C113" s="14">
         <v>96</v>
       </c>
-      <c r="D113" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E113" t="s" s="12">
+      <c r="D113" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E113" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F113" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G113" t="s" s="13">
+      <c r="F113" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s" s="20">
         <v>135</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="114" ht="68.05" customHeight="1">
-      <c r="A114" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B114" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C114" s="11">
+      <c r="A114" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B114" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C114" s="14">
         <v>96</v>
       </c>
-      <c r="D114" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E114" t="s" s="12">
+      <c r="D114" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E114" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F114" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s" s="13">
+      <c r="F114" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s" s="20">
         <v>136</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="115" ht="68.05" customHeight="1">
-      <c r="A115" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B115" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C115" s="11">
+      <c r="A115" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B115" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C115" s="14">
         <v>96</v>
       </c>
-      <c r="D115" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E115" t="s" s="12">
+      <c r="D115" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E115" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F115" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G115" t="s" s="13">
+      <c r="F115" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G115" t="s" s="20">
         <v>137</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="116" ht="92.05" customHeight="1">
-      <c r="A116" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B116" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C116" s="11">
+      <c r="A116" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B116" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C116" s="14">
         <v>96</v>
       </c>
-      <c r="D116" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E116" t="s" s="12">
+      <c r="D116" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E116" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F116" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G116" t="s" s="13">
+      <c r="F116" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s" s="20">
         <v>138</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="117" ht="68.05" customHeight="1">
-      <c r="A117" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B117" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C117" s="11">
+      <c r="A117" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B117" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C117" s="14">
         <v>96</v>
       </c>
-      <c r="D117" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E117" t="s" s="12">
+      <c r="D117" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E117" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="F117" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="G117" t="s" s="13">
+      <c r="F117" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="G117" t="s" s="20">
         <v>139</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="118" ht="44.05" customHeight="1">
-      <c r="A118" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B118" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C118" s="11">
+      <c r="A118" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B118" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C118" s="14">
         <v>250</v>
       </c>
-      <c r="D118" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s" s="12">
+      <c r="D118" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F118" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s" s="13">
+      <c r="F118" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s" s="20">
         <v>140</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="119" ht="44.05" customHeight="1">
-      <c r="A119" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B119" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C119" s="11">
+      <c r="A119" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B119" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C119" s="14">
         <v>250</v>
       </c>
-      <c r="D119" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E119" t="s" s="12">
+      <c r="D119" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F119" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s" s="13">
+      <c r="F119" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s" s="20">
         <v>141</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="120" ht="68.05" customHeight="1">
-      <c r="A120" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B120" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C120" s="11">
+      <c r="A120" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B120" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C120" s="14">
         <v>250</v>
       </c>
-      <c r="D120" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E120" t="s" s="12">
+      <c r="D120" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F120" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s" s="13">
+      <c r="F120" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s" s="20">
         <v>142</v>
       </c>
-      <c r="H120" t="s" s="12">
+      <c r="H120" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="121" ht="68.05" customHeight="1">
-      <c r="A121" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B121" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C121" s="11">
+      <c r="A121" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B121" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C121" s="14">
         <v>250</v>
       </c>
-      <c r="D121" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E121" t="s" s="12">
+      <c r="D121" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F121" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s" s="13">
+      <c r="F121" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s" s="20">
         <v>143</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="122" ht="44.05" customHeight="1">
-      <c r="A122" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B122" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="C122" s="11">
+      <c r="A122" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B122" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="C122" s="14">
         <v>250</v>
       </c>
-      <c r="D122" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E122" t="s" s="12">
+      <c r="D122" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F122" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s" s="13">
+      <c r="F122" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s" s="20">
         <v>144</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>49</v>
       </c>
     </row>
